--- a/ha-asset/01_design/04_nodeapi/設計書_4.0.ヘルスチェックAPI.xlsx
+++ b/ha-asset/01_design/04_nodeapi/設計書_4.0.ヘルスチェックAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\04_nodeapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6012D920-6176-49AA-99DD-D220AE16D8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E66EEE-9EAF-4CCE-BA22-EAA7FC394F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="1185" windowWidth="21930" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="540" windowWidth="22725" windowHeight="16515" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックAPI'!$A$1:$BP$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックAPI'!$A$1:$BP$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3.1. ファイルIF'!$A$1:$BK$37</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
   <si>
     <t>更新日時</t>
   </si>
@@ -374,6 +374,14 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>エンドポイントURL</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/healthcheck</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -441,6 +449,18 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -704,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -856,8 +876,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -866,14 +908,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -885,53 +943,25 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,7 +1183,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:Z19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1960,12 +1992,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1975,60 +2055,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3650,9 +3682,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4089,7 +4123,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="48"/>
@@ -4097,7 +4131,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="53" t="s">
         <v>52</v>
       </c>
       <c r="J7" s="48"/>
@@ -4163,7 +4197,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="48"/>
@@ -4171,7 +4205,7 @@
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="49"/>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="53" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="48"/>
@@ -4237,7 +4271,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="67" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="48"/>
@@ -4245,7 +4279,7 @@
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="49"/>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="53" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="48"/>
@@ -4308,165 +4342,165 @@
       <c r="BO9" s="49"/>
       <c r="BP9" s="2"/>
     </row>
-    <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17" t="s">
-        <v>29</v>
+    <row r="10" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="67" t="s">
+        <v>95</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
-      <c r="BK10" s="18"/>
-      <c r="BL10" s="18"/>
-      <c r="BM10" s="18"/>
-      <c r="BN10" s="18"/>
-      <c r="BO10" s="19"/>
-      <c r="BP10" s="2"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="87"/>
+      <c r="BN10" s="87"/>
+      <c r="BO10" s="87"/>
+      <c r="BP10" s="84"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="72" t="s">
-        <v>30</v>
+      <c r="C11" s="17" t="s">
+        <v>29</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="48"/>
-      <c r="BJ11" s="48"/>
-      <c r="BK11" s="48"/>
-      <c r="BL11" s="48"/>
-      <c r="BM11" s="48"/>
-      <c r="BN11" s="48"/>
-      <c r="BO11" s="49"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
+      <c r="BK11" s="18"/>
+      <c r="BL11" s="18"/>
+      <c r="BM11" s="18"/>
+      <c r="BN11" s="18"/>
+      <c r="BO11" s="19"/>
       <c r="BP11" s="2"/>
     </row>
     <row r="12" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="14"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="72" t="s">
-        <v>32</v>
+      <c r="D12" s="53" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
       <c r="H12" s="49"/>
       <c r="I12" s="70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
@@ -4530,870 +4564,872 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="48"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="48"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="48"/>
+      <c r="BI13" s="48"/>
+      <c r="BJ13" s="48"/>
+      <c r="BK13" s="48"/>
+      <c r="BL13" s="48"/>
+      <c r="BM13" s="48"/>
+      <c r="BN13" s="48"/>
+      <c r="BO13" s="49"/>
+      <c r="BP13" s="2"/>
+    </row>
+    <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="23"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="22"/>
-      <c r="AV13" s="23"/>
-      <c r="AW13" s="22"/>
-      <c r="AX13" s="22"/>
-      <c r="AY13" s="22"/>
-      <c r="AZ13" s="23"/>
-      <c r="BA13" s="23"/>
-      <c r="BB13" s="23"/>
-      <c r="BC13" s="23"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="24"/>
-      <c r="BJ13" s="24"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="24"/>
-      <c r="BO13" s="25"/>
-      <c r="BP13" s="2"/>
-    </row>
-    <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="24"/>
+      <c r="BH14" s="24"/>
+      <c r="BI14" s="24"/>
+      <c r="BJ14" s="24"/>
+      <c r="BK14" s="24"/>
+      <c r="BL14" s="24"/>
+      <c r="BM14" s="24"/>
+      <c r="BN14" s="24"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="2"/>
+    </row>
+    <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="50" t="s">
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="71" t="s">
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="27" t="s">
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="50" t="s">
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="48"/>
-      <c r="BE14" s="48"/>
-      <c r="BF14" s="48"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="48"/>
-      <c r="BI14" s="48"/>
-      <c r="BJ14" s="48"/>
-      <c r="BK14" s="48"/>
-      <c r="BL14" s="48"/>
-      <c r="BM14" s="48"/>
-      <c r="BN14" s="48"/>
-      <c r="BO14" s="49"/>
-      <c r="BP14" s="2"/>
-    </row>
-    <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="75"/>
-      <c r="AP15" s="75"/>
-      <c r="AQ15" s="75"/>
-      <c r="AR15" s="75"/>
-      <c r="AS15" s="75"/>
-      <c r="AT15" s="75"/>
-      <c r="AU15" s="75"/>
-      <c r="AV15" s="75"/>
-      <c r="AW15" s="75"/>
-      <c r="AX15" s="75"/>
-      <c r="AY15" s="75"/>
-      <c r="AZ15" s="75"/>
-      <c r="BA15" s="75"/>
-      <c r="BB15" s="75"/>
-      <c r="BC15" s="75"/>
-      <c r="BD15" s="75"/>
-      <c r="BE15" s="75"/>
-      <c r="BF15" s="75"/>
-      <c r="BG15" s="75"/>
-      <c r="BH15" s="75"/>
-      <c r="BI15" s="75"/>
-      <c r="BJ15" s="75"/>
-      <c r="BK15" s="75"/>
-      <c r="BL15" s="75"/>
-      <c r="BM15" s="75"/>
-      <c r="BN15" s="75"/>
-      <c r="BO15" s="76"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="48"/>
+      <c r="BJ15" s="48"/>
+      <c r="BK15" s="48"/>
+      <c r="BL15" s="48"/>
+      <c r="BM15" s="48"/>
+      <c r="BN15" s="48"/>
+      <c r="BO15" s="49"/>
       <c r="BP15" s="2"/>
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61"/>
+      <c r="AR16" s="61"/>
+      <c r="AS16" s="61"/>
+      <c r="AT16" s="61"/>
+      <c r="AU16" s="61"/>
+      <c r="AV16" s="61"/>
+      <c r="AW16" s="61"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="61"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="61"/>
+      <c r="BC16" s="61"/>
+      <c r="BD16" s="61"/>
+      <c r="BE16" s="61"/>
+      <c r="BF16" s="61"/>
+      <c r="BG16" s="61"/>
+      <c r="BH16" s="61"/>
+      <c r="BI16" s="61"/>
+      <c r="BJ16" s="61"/>
+      <c r="BK16" s="61"/>
+      <c r="BL16" s="61"/>
+      <c r="BM16" s="61"/>
+      <c r="BN16" s="61"/>
+      <c r="BO16" s="62"/>
+      <c r="BP16" s="2"/>
+    </row>
+    <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="22"/>
-      <c r="AX16" s="22"/>
-      <c r="AY16" s="22"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="23"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="24"/>
-      <c r="BG16" s="24"/>
-      <c r="BH16" s="24"/>
-      <c r="BI16" s="24"/>
-      <c r="BJ16" s="24"/>
-      <c r="BK16" s="24"/>
-      <c r="BL16" s="24"/>
-      <c r="BM16" s="24"/>
-      <c r="BN16" s="24"/>
-      <c r="BO16" s="25"/>
-      <c r="BP16" s="2"/>
-    </row>
-    <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="24"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="24"/>
+      <c r="BI17" s="24"/>
+      <c r="BJ17" s="24"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="24"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="24"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="2"/>
+    </row>
+    <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="50" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="50" t="s">
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="71" t="s">
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="27" t="s">
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="50" t="s">
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="48"/>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="48"/>
-      <c r="BC17" s="48"/>
-      <c r="BD17" s="48"/>
-      <c r="BE17" s="48"/>
-      <c r="BF17" s="48"/>
-      <c r="BG17" s="48"/>
-      <c r="BH17" s="48"/>
-      <c r="BI17" s="48"/>
-      <c r="BJ17" s="48"/>
-      <c r="BK17" s="48"/>
-      <c r="BL17" s="48"/>
-      <c r="BM17" s="48"/>
-      <c r="BN17" s="48"/>
-      <c r="BO17" s="49"/>
-      <c r="BP17" s="2"/>
-    </row>
-    <row r="18" spans="1:68" ht="48" customHeight="1" outlineLevel="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="72" t="s">
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="48"/>
+      <c r="AZ18" s="48"/>
+      <c r="BA18" s="48"/>
+      <c r="BB18" s="48"/>
+      <c r="BC18" s="48"/>
+      <c r="BD18" s="48"/>
+      <c r="BE18" s="48"/>
+      <c r="BF18" s="48"/>
+      <c r="BG18" s="48"/>
+      <c r="BH18" s="48"/>
+      <c r="BI18" s="48"/>
+      <c r="BJ18" s="48"/>
+      <c r="BK18" s="48"/>
+      <c r="BL18" s="48"/>
+      <c r="BM18" s="48"/>
+      <c r="BN18" s="48"/>
+      <c r="BO18" s="49"/>
+      <c r="BP18" s="2"/>
+    </row>
+    <row r="19" spans="1:68" ht="48" customHeight="1" outlineLevel="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="56" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="56" t="s">
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="47">
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="47">
         <v>1</v>
       </c>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="77" t="s">
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="57"/>
-      <c r="AW18" s="57"/>
-      <c r="AX18" s="57"/>
-      <c r="AY18" s="57"/>
-      <c r="AZ18" s="57"/>
-      <c r="BA18" s="57"/>
-      <c r="BB18" s="57"/>
-      <c r="BC18" s="57"/>
-      <c r="BD18" s="57"/>
-      <c r="BE18" s="57"/>
-      <c r="BF18" s="57"/>
-      <c r="BG18" s="57"/>
-      <c r="BH18" s="57"/>
-      <c r="BI18" s="57"/>
-      <c r="BJ18" s="57"/>
-      <c r="BK18" s="57"/>
-      <c r="BL18" s="57"/>
-      <c r="BM18" s="57"/>
-      <c r="BN18" s="57"/>
-      <c r="BO18" s="58"/>
-      <c r="BP18" s="2"/>
-    </row>
-    <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="72" t="s">
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="54"/>
+      <c r="BA19" s="54"/>
+      <c r="BB19" s="54"/>
+      <c r="BC19" s="54"/>
+      <c r="BD19" s="54"/>
+      <c r="BE19" s="54"/>
+      <c r="BF19" s="54"/>
+      <c r="BG19" s="54"/>
+      <c r="BH19" s="54"/>
+      <c r="BI19" s="54"/>
+      <c r="BJ19" s="54"/>
+      <c r="BK19" s="54"/>
+      <c r="BL19" s="54"/>
+      <c r="BM19" s="54"/>
+      <c r="BN19" s="54"/>
+      <c r="BO19" s="55"/>
+      <c r="BP19" s="2"/>
+    </row>
+    <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="56" t="s">
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="56" t="s">
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="57"/>
-      <c r="AV19" s="57"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="57"/>
-      <c r="AY19" s="57"/>
-      <c r="AZ19" s="57"/>
-      <c r="BA19" s="57"/>
-      <c r="BB19" s="57"/>
-      <c r="BC19" s="57"/>
-      <c r="BD19" s="57"/>
-      <c r="BE19" s="57"/>
-      <c r="BF19" s="57"/>
-      <c r="BG19" s="57"/>
-      <c r="BH19" s="57"/>
-      <c r="BI19" s="57"/>
-      <c r="BJ19" s="57"/>
-      <c r="BK19" s="57"/>
-      <c r="BL19" s="57"/>
-      <c r="BM19" s="57"/>
-      <c r="BN19" s="57"/>
-      <c r="BO19" s="58"/>
-      <c r="BP19" s="2"/>
-    </row>
-    <row r="20" spans="1:68" ht="16.5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="2"/>
-      <c r="BH20" s="2"/>
-      <c r="BI20" s="2"/>
-      <c r="BJ20" s="2"/>
-      <c r="BK20" s="2"/>
-      <c r="BL20" s="2"/>
-      <c r="BM20" s="2"/>
-      <c r="BN20" s="2"/>
-      <c r="BO20" s="2"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="54"/>
+      <c r="AP20" s="54"/>
+      <c r="AQ20" s="54"/>
+      <c r="AR20" s="54"/>
+      <c r="AS20" s="54"/>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="54"/>
+      <c r="AV20" s="54"/>
+      <c r="AW20" s="54"/>
+      <c r="AX20" s="54"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="54"/>
+      <c r="BA20" s="54"/>
+      <c r="BB20" s="54"/>
+      <c r="BC20" s="54"/>
+      <c r="BD20" s="54"/>
+      <c r="BE20" s="54"/>
+      <c r="BF20" s="54"/>
+      <c r="BG20" s="54"/>
+      <c r="BH20" s="54"/>
+      <c r="BI20" s="54"/>
+      <c r="BJ20" s="54"/>
+      <c r="BK20" s="54"/>
+      <c r="BL20" s="54"/>
+      <c r="BM20" s="54"/>
+      <c r="BN20" s="54"/>
+      <c r="BO20" s="55"/>
       <c r="BP20" s="2"/>
     </row>
     <row r="21" spans="1:68" ht="16.5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+    </row>
+    <row r="22" spans="1:68" ht="16.5">
+      <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-      <c r="BF21" s="6"/>
-      <c r="BG21" s="6"/>
-      <c r="BH21" s="6"/>
-      <c r="BI21" s="6"/>
-      <c r="BJ21" s="6"/>
-      <c r="BK21" s="6"/>
-      <c r="BL21" s="6"/>
-      <c r="BM21" s="6"/>
-      <c r="BN21" s="6"/>
-      <c r="BO21" s="6"/>
-      <c r="BP21" s="6"/>
-    </row>
-    <row r="22" spans="1:68" ht="16.5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="2"/>
-      <c r="BI22" s="2"/>
-      <c r="BJ22" s="2"/>
-      <c r="BK22" s="2"/>
-      <c r="BL22" s="2"/>
-      <c r="BM22" s="2"/>
-      <c r="BN22" s="2"/>
-      <c r="BO22" s="2"/>
-      <c r="BP22" s="2"/>
-    </row>
-    <row r="23" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="78" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
+      <c r="BL22" s="6"/>
+      <c r="BM22" s="6"/>
+      <c r="BN22" s="6"/>
+      <c r="BO22" s="6"/>
+      <c r="BP22" s="6"/>
+    </row>
+    <row r="23" spans="1:68" ht="16.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+    </row>
+    <row r="24" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C24" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="63" t="s">
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="63" t="s">
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="60"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="64"/>
-      <c r="AL23" s="61" t="s">
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="75" t="s">
         <v>13</v>
-      </c>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="48"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="48"/>
-      <c r="BD23" s="48"/>
-      <c r="BE23" s="48"/>
-      <c r="BF23" s="48"/>
-      <c r="BG23" s="48"/>
-      <c r="BH23" s="48"/>
-      <c r="BI23" s="48"/>
-      <c r="BJ23" s="48"/>
-      <c r="BK23" s="48"/>
-      <c r="BL23" s="48"/>
-      <c r="BM23" s="48"/>
-      <c r="BN23" s="48"/>
-      <c r="BO23" s="49"/>
-      <c r="BP23" s="2"/>
-    </row>
-    <row r="24" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="62" t="s">
-        <v>14</v>
       </c>
       <c r="AM24" s="48"/>
       <c r="AN24" s="48"/>
@@ -5402,17 +5438,13 @@
       <c r="AQ24" s="48"/>
       <c r="AR24" s="48"/>
       <c r="AS24" s="48"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="62" t="s">
-        <v>15</v>
-      </c>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
       <c r="AV24" s="48"/>
       <c r="AW24" s="48"/>
       <c r="AX24" s="48"/>
-      <c r="AY24" s="49"/>
-      <c r="AZ24" s="62" t="s">
-        <v>16</v>
-      </c>
+      <c r="AY24" s="48"/>
+      <c r="AZ24" s="48"/>
       <c r="BA24" s="48"/>
       <c r="BB24" s="48"/>
       <c r="BC24" s="48"/>
@@ -5430,50 +5462,47 @@
       <c r="BO24" s="49"/>
       <c r="BP24" s="2"/>
     </row>
-    <row r="25" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="44">
-        <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>1</v>
+      <c r="B25" s="80"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="80"/>
+      <c r="AL25" s="76" t="s">
+        <v>14</v>
       </c>
-      <c r="C25" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="68"/>
       <c r="AM25" s="48"/>
       <c r="AN25" s="48"/>
       <c r="AO25" s="48"/>
@@ -5482,12 +5511,16 @@
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
       <c r="AT25" s="49"/>
-      <c r="AU25" s="68"/>
+      <c r="AU25" s="76" t="s">
+        <v>15</v>
+      </c>
       <c r="AV25" s="48"/>
       <c r="AW25" s="48"/>
       <c r="AX25" s="48"/>
       <c r="AY25" s="49"/>
-      <c r="AZ25" s="69"/>
+      <c r="AZ25" s="76" t="s">
+        <v>16</v>
+      </c>
       <c r="BA25" s="48"/>
       <c r="BB25" s="48"/>
       <c r="BC25" s="48"/>
@@ -5505,442 +5538,447 @@
       <c r="BO25" s="49"/>
       <c r="BP25" s="2"/>
     </row>
-    <row r="26" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="26" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A26" s="7"/>
       <c r="B26" s="44">
         <f ca="1">MAX(B$24:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="C26" s="72" t="s">
-        <v>92</v>
+      <c r="C26" s="53" t="s">
+        <v>91</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="68"/>
-      <c r="AM26" s="57"/>
-      <c r="AN26" s="57"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="58"/>
-      <c r="AU26" s="68"/>
-      <c r="AV26" s="57"/>
-      <c r="AW26" s="57"/>
-      <c r="AX26" s="57"/>
-      <c r="AY26" s="58"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="57"/>
-      <c r="BB26" s="57"/>
-      <c r="BC26" s="57"/>
-      <c r="BD26" s="57"/>
-      <c r="BE26" s="57"/>
-      <c r="BF26" s="57"/>
-      <c r="BG26" s="57"/>
-      <c r="BH26" s="57"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="57"/>
-      <c r="BK26" s="57"/>
-      <c r="BL26" s="57"/>
-      <c r="BM26" s="57"/>
-      <c r="BN26" s="57"/>
-      <c r="BO26" s="58"/>
-      <c r="BP26" s="16"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="48"/>
+      <c r="AS26" s="48"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="48"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="74"/>
+      <c r="BA26" s="48"/>
+      <c r="BB26" s="48"/>
+      <c r="BC26" s="48"/>
+      <c r="BD26" s="48"/>
+      <c r="BE26" s="48"/>
+      <c r="BF26" s="48"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="48"/>
+      <c r="BI26" s="48"/>
+      <c r="BJ26" s="48"/>
+      <c r="BK26" s="48"/>
+      <c r="BL26" s="48"/>
+      <c r="BM26" s="48"/>
+      <c r="BN26" s="48"/>
+      <c r="BO26" s="49"/>
+      <c r="BP26" s="2"/>
     </row>
     <row r="27" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A27" s="7"/>
       <c r="B27" s="44">
-        <f ca="1">MAX(B$24:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>3</v>
+        <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>2</v>
       </c>
-      <c r="C27" s="72" t="s">
-        <v>93</v>
+      <c r="C27" s="53" t="s">
+        <v>92</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="58"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="57"/>
-      <c r="AW27" s="57"/>
-      <c r="AX27" s="57"/>
-      <c r="AY27" s="58"/>
-      <c r="AZ27" s="69"/>
-      <c r="BA27" s="57"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
-      <c r="BK27" s="57"/>
-      <c r="BL27" s="57"/>
-      <c r="BM27" s="57"/>
-      <c r="BN27" s="57"/>
-      <c r="BO27" s="58"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="54"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="54"/>
+      <c r="AN27" s="54"/>
+      <c r="AO27" s="54"/>
+      <c r="AP27" s="54"/>
+      <c r="AQ27" s="54"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="54"/>
+      <c r="AT27" s="55"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="54"/>
+      <c r="AW27" s="54"/>
+      <c r="AX27" s="54"/>
+      <c r="AY27" s="55"/>
+      <c r="AZ27" s="74"/>
+      <c r="BA27" s="54"/>
+      <c r="BB27" s="54"/>
+      <c r="BC27" s="54"/>
+      <c r="BD27" s="54"/>
+      <c r="BE27" s="54"/>
+      <c r="BF27" s="54"/>
+      <c r="BG27" s="54"/>
+      <c r="BH27" s="54"/>
+      <c r="BI27" s="54"/>
+      <c r="BJ27" s="54"/>
+      <c r="BK27" s="54"/>
+      <c r="BL27" s="54"/>
+      <c r="BM27" s="54"/>
+      <c r="BN27" s="54"/>
+      <c r="BO27" s="55"/>
       <c r="BP27" s="16"/>
     </row>
     <row r="28" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A28" s="7"/>
       <c r="B28" s="44">
-        <f ca="1">MAX(B$24:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
+      <c r="AG28" s="54"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="54"/>
+      <c r="AN28" s="54"/>
+      <c r="AO28" s="54"/>
+      <c r="AP28" s="54"/>
+      <c r="AQ28" s="54"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="54"/>
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="54"/>
+      <c r="AW28" s="54"/>
+      <c r="AX28" s="54"/>
+      <c r="AY28" s="55"/>
+      <c r="AZ28" s="74"/>
+      <c r="BA28" s="54"/>
+      <c r="BB28" s="54"/>
+      <c r="BC28" s="54"/>
+      <c r="BD28" s="54"/>
+      <c r="BE28" s="54"/>
+      <c r="BF28" s="54"/>
+      <c r="BG28" s="54"/>
+      <c r="BH28" s="54"/>
+      <c r="BI28" s="54"/>
+      <c r="BJ28" s="54"/>
+      <c r="BK28" s="54"/>
+      <c r="BL28" s="54"/>
+      <c r="BM28" s="54"/>
+      <c r="BN28" s="54"/>
+      <c r="BO28" s="55"/>
+      <c r="BP28" s="16"/>
+    </row>
+    <row r="29" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="44">
+        <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C29" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="68"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="58"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="58"/>
-      <c r="BP28" s="16"/>
-    </row>
-    <row r="29" spans="1:68" ht="16.5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2"/>
-      <c r="BH29" s="2"/>
-      <c r="BI29" s="2"/>
-      <c r="BJ29" s="2"/>
-      <c r="BK29" s="2"/>
-      <c r="BL29" s="2"/>
-      <c r="BM29" s="2"/>
-      <c r="BN29" s="2"/>
-      <c r="BO29" s="2"/>
-      <c r="BP29" s="2"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="54"/>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="55"/>
+      <c r="AZ29" s="74"/>
+      <c r="BA29" s="54"/>
+      <c r="BB29" s="54"/>
+      <c r="BC29" s="54"/>
+      <c r="BD29" s="54"/>
+      <c r="BE29" s="54"/>
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="54"/>
+      <c r="BI29" s="54"/>
+      <c r="BJ29" s="54"/>
+      <c r="BK29" s="54"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="54"/>
+      <c r="BN29" s="54"/>
+      <c r="BO29" s="55"/>
+      <c r="BP29" s="16"/>
     </row>
     <row r="30" spans="1:68" ht="16.5">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+    </row>
+    <row r="31" spans="1:68" ht="16.5">
+      <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-      <c r="AQ30" s="6"/>
-      <c r="AR30" s="6"/>
-      <c r="AS30" s="6"/>
-      <c r="AT30" s="6"/>
-      <c r="AU30" s="6"/>
-      <c r="AV30" s="6"/>
-      <c r="AW30" s="6"/>
-      <c r="AX30" s="6"/>
-      <c r="AY30" s="6"/>
-      <c r="AZ30" s="6"/>
-      <c r="BA30" s="6"/>
-      <c r="BB30" s="6"/>
-      <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="6"/>
-      <c r="BF30" s="6"/>
-      <c r="BG30" s="6"/>
-      <c r="BH30" s="6"/>
-      <c r="BI30" s="6"/>
-      <c r="BJ30" s="6"/>
-      <c r="BK30" s="6"/>
-      <c r="BL30" s="6"/>
-      <c r="BM30" s="6"/>
-      <c r="BN30" s="6"/>
-      <c r="BO30" s="6"/>
-      <c r="BP30" s="6"/>
-    </row>
-    <row r="31" spans="1:68" ht="16.5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
-      <c r="BF31" s="2"/>
-      <c r="BG31" s="2"/>
-      <c r="BH31" s="2"/>
-      <c r="BI31" s="2"/>
-      <c r="BJ31" s="2"/>
-      <c r="BK31" s="2"/>
-      <c r="BL31" s="2"/>
-      <c r="BM31" s="2"/>
-      <c r="BN31" s="2"/>
-      <c r="BO31" s="2"/>
-      <c r="BP31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
+      <c r="BG31" s="6"/>
+      <c r="BH31" s="6"/>
+      <c r="BI31" s="6"/>
+      <c r="BJ31" s="6"/>
+      <c r="BK31" s="6"/>
+      <c r="BL31" s="6"/>
+      <c r="BM31" s="6"/>
+      <c r="BN31" s="6"/>
+      <c r="BO31" s="6"/>
+      <c r="BP31" s="6"/>
     </row>
     <row r="32" spans="1:68" ht="16.5">
       <c r="A32" s="2"/>
@@ -6013,146 +6051,146 @@
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+    </row>
+    <row r="34" spans="1:68" ht="16.5">
+      <c r="A34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
-      <c r="BC33" s="1"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="1"/>
-      <c r="BF33" s="1"/>
-      <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
-      <c r="BI33" s="1"/>
-      <c r="BJ33" s="1"/>
-      <c r="BK33" s="1"/>
-      <c r="BL33" s="1"/>
-      <c r="BM33" s="1"/>
-      <c r="BN33" s="1"/>
-      <c r="BO33" s="1"/>
-      <c r="BP33" s="1"/>
-    </row>
-    <row r="34" spans="1:68" ht="16.5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2"/>
-      <c r="BJ34" s="2"/>
-      <c r="BK34" s="2"/>
-      <c r="BL34" s="2"/>
-      <c r="BM34" s="2"/>
-      <c r="BN34" s="2"/>
-      <c r="BO34" s="2"/>
-      <c r="BP34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
     </row>
     <row r="35" spans="1:68" ht="16.5">
       <c r="A35" s="2"/>
@@ -6714,84 +6752,156 @@
       <c r="BO42" s="2"/>
       <c r="BP42" s="2"/>
     </row>
+    <row r="43" spans="1:68" ht="16.5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="2"/>
+      <c r="BL43" s="2"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43" s="2"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="74">
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AL24:BO24"/>
+    <mergeCell ref="AL25:AT25"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="AZ25:BO25"/>
+    <mergeCell ref="AC24:AK25"/>
+    <mergeCell ref="C19:P19"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:K25"/>
+    <mergeCell ref="L24:AB25"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AZ26:BO26"/>
+    <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AZ27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="I13:BO13"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:BO16"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:AB26"/>
+    <mergeCell ref="AC26:AK26"/>
     <mergeCell ref="C27:K27"/>
     <mergeCell ref="L27:AB27"/>
     <mergeCell ref="AC27:AK27"/>
     <mergeCell ref="C28:K28"/>
     <mergeCell ref="L28:AB28"/>
     <mergeCell ref="AC28:AK28"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="L25:AB25"/>
-    <mergeCell ref="AC25:AK25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:AB26"/>
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="I11:BO11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="AL27:AT27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AZ27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AL25:AT25"/>
-    <mergeCell ref="AU25:AY25"/>
-    <mergeCell ref="AZ25:BO25"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AZ26:BO26"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AL23:BO23"/>
-    <mergeCell ref="AL24:AT24"/>
-    <mergeCell ref="AU24:AY24"/>
-    <mergeCell ref="AZ24:BO24"/>
-    <mergeCell ref="AC23:AK24"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="C19:P19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:K24"/>
-    <mergeCell ref="L23:AB24"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="AH15 AH18:AH19" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="AH16 AH19:AH20" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"○"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6799,9 +6909,9 @@
   <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="3" max="16383" man="1"/>
-    <brk id="20" max="16383" man="1"/>
-    <brk id="29" max="16383" man="1"/>
-    <brk id="32" max="16383" man="1"/>
+    <brk id="21" max="16383" man="1"/>
+    <brk id="30" max="16383" man="1"/>
+    <brk id="33" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -6816,13 +6926,13 @@
           <x14:formula1>
             <xm:f>データ入力例!$B$1:$B$27</xm:f>
           </x14:formula1>
-          <xm:sqref>Q15</xm:sqref>
+          <xm:sqref>Q16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
             <xm:f>データ入力例!$C$1:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>X15</xm:sqref>
+          <xm:sqref>X16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7246,7 +7356,7 @@
     <row r="7" spans="1:63" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="83" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="48"/>
@@ -7256,7 +7366,7 @@
       <c r="H7" s="48"/>
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
-      <c r="K7" s="72"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
@@ -7313,7 +7423,7 @@
     <row r="8" spans="1:63" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="48"/>
@@ -7323,7 +7433,7 @@
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
       <c r="J8" s="49"/>
-      <c r="K8" s="72"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="48"/>
@@ -7380,7 +7490,7 @@
     <row r="9" spans="1:63" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="83" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="48"/>
@@ -7390,7 +7500,7 @@
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
-      <c r="K9" s="72"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
@@ -7447,7 +7557,7 @@
     <row r="10" spans="1:63" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="83" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="48"/>
@@ -7457,7 +7567,7 @@
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
       <c r="J10" s="49"/>
-      <c r="K10" s="72"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
@@ -7514,7 +7624,7 @@
     <row r="11" spans="1:63" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="83" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="48"/>
@@ -7524,7 +7634,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
       <c r="N11" s="48"/>
@@ -7581,7 +7691,7 @@
     <row r="12" spans="1:63" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="83" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="48"/>
@@ -7591,7 +7701,7 @@
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="49"/>
-      <c r="K12" s="72"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
@@ -7848,7 +7958,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="48"/>
@@ -7869,7 +7979,7 @@
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
       <c r="V16" s="49"/>
-      <c r="W16" s="71" t="s">
+      <c r="W16" s="67" t="s">
         <v>7</v>
       </c>
       <c r="X16" s="48"/>
@@ -7878,7 +7988,7 @@
       <c r="AA16" s="48"/>
       <c r="AB16" s="48"/>
       <c r="AC16" s="49"/>
-      <c r="AD16" s="71" t="s">
+      <c r="AD16" s="67" t="s">
         <v>8</v>
       </c>
       <c r="AE16" s="48"/>
@@ -7887,12 +7997,12 @@
       <c r="AH16" s="48"/>
       <c r="AI16" s="48"/>
       <c r="AJ16" s="49"/>
-      <c r="AK16" s="71" t="s">
+      <c r="AK16" s="67" t="s">
         <v>21</v>
       </c>
       <c r="AL16" s="48"/>
       <c r="AM16" s="49"/>
-      <c r="AN16" s="71" t="s">
+      <c r="AN16" s="67" t="s">
         <v>36</v>
       </c>
       <c r="AO16" s="48"/>
@@ -7923,7 +8033,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="72"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
@@ -7942,21 +8052,21 @@
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
       <c r="V17" s="49"/>
-      <c r="W17" s="72"/>
+      <c r="W17" s="53"/>
       <c r="X17" s="48"/>
       <c r="Y17" s="48"/>
       <c r="Z17" s="48"/>
       <c r="AA17" s="48"/>
       <c r="AB17" s="48"/>
       <c r="AC17" s="49"/>
-      <c r="AD17" s="72"/>
+      <c r="AD17" s="53"/>
       <c r="AE17" s="48"/>
       <c r="AF17" s="48"/>
       <c r="AG17" s="48"/>
       <c r="AH17" s="48"/>
       <c r="AI17" s="48"/>
       <c r="AJ17" s="49"/>
-      <c r="AK17" s="72"/>
+      <c r="AK17" s="53"/>
       <c r="AL17" s="48"/>
       <c r="AM17" s="49"/>
       <c r="AN17" s="70"/>
@@ -7988,7 +8098,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="72"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
@@ -8007,21 +8117,21 @@
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
       <c r="V18" s="49"/>
-      <c r="W18" s="72"/>
+      <c r="W18" s="53"/>
       <c r="X18" s="48"/>
       <c r="Y18" s="48"/>
       <c r="Z18" s="48"/>
       <c r="AA18" s="48"/>
       <c r="AB18" s="48"/>
       <c r="AC18" s="49"/>
-      <c r="AD18" s="72"/>
+      <c r="AD18" s="53"/>
       <c r="AE18" s="48"/>
       <c r="AF18" s="48"/>
       <c r="AG18" s="48"/>
       <c r="AH18" s="48"/>
       <c r="AI18" s="48"/>
       <c r="AJ18" s="49"/>
-      <c r="AK18" s="72"/>
+      <c r="AK18" s="53"/>
       <c r="AL18" s="48"/>
       <c r="AM18" s="49"/>
       <c r="AN18" s="70"/>
@@ -8053,7 +8163,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="72"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
@@ -8072,21 +8182,21 @@
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
       <c r="V19" s="49"/>
-      <c r="W19" s="72"/>
+      <c r="W19" s="53"/>
       <c r="X19" s="48"/>
       <c r="Y19" s="48"/>
       <c r="Z19" s="48"/>
       <c r="AA19" s="48"/>
       <c r="AB19" s="48"/>
       <c r="AC19" s="49"/>
-      <c r="AD19" s="72"/>
+      <c r="AD19" s="53"/>
       <c r="AE19" s="48"/>
       <c r="AF19" s="48"/>
       <c r="AG19" s="48"/>
       <c r="AH19" s="48"/>
       <c r="AI19" s="48"/>
       <c r="AJ19" s="49"/>
-      <c r="AK19" s="72"/>
+      <c r="AK19" s="53"/>
       <c r="AL19" s="48"/>
       <c r="AM19" s="49"/>
       <c r="AN19" s="70"/>
@@ -8185,7 +8295,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="48"/>
@@ -8206,7 +8316,7 @@
       <c r="T21" s="48"/>
       <c r="U21" s="48"/>
       <c r="V21" s="49"/>
-      <c r="W21" s="71" t="s">
+      <c r="W21" s="67" t="s">
         <v>7</v>
       </c>
       <c r="X21" s="48"/>
@@ -8215,7 +8325,7 @@
       <c r="AA21" s="48"/>
       <c r="AB21" s="48"/>
       <c r="AC21" s="49"/>
-      <c r="AD21" s="71" t="s">
+      <c r="AD21" s="67" t="s">
         <v>8</v>
       </c>
       <c r="AE21" s="48"/>
@@ -8224,12 +8334,12 @@
       <c r="AH21" s="48"/>
       <c r="AI21" s="48"/>
       <c r="AJ21" s="49"/>
-      <c r="AK21" s="71" t="s">
+      <c r="AK21" s="67" t="s">
         <v>21</v>
       </c>
       <c r="AL21" s="48"/>
       <c r="AM21" s="49"/>
-      <c r="AN21" s="71" t="s">
+      <c r="AN21" s="67" t="s">
         <v>36</v>
       </c>
       <c r="AO21" s="48"/>
@@ -8260,7 +8370,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="72"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
@@ -8279,21 +8389,21 @@
       <c r="T22" s="48"/>
       <c r="U22" s="48"/>
       <c r="V22" s="49"/>
-      <c r="W22" s="72"/>
+      <c r="W22" s="53"/>
       <c r="X22" s="48"/>
       <c r="Y22" s="48"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="48"/>
       <c r="AB22" s="48"/>
       <c r="AC22" s="49"/>
-      <c r="AD22" s="72"/>
+      <c r="AD22" s="53"/>
       <c r="AE22" s="48"/>
       <c r="AF22" s="48"/>
       <c r="AG22" s="48"/>
       <c r="AH22" s="48"/>
       <c r="AI22" s="48"/>
       <c r="AJ22" s="49"/>
-      <c r="AK22" s="72"/>
+      <c r="AK22" s="53"/>
       <c r="AL22" s="48"/>
       <c r="AM22" s="49"/>
       <c r="AN22" s="70"/>
@@ -8325,7 +8435,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="72"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
@@ -8344,21 +8454,21 @@
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
       <c r="V23" s="49"/>
-      <c r="W23" s="72"/>
+      <c r="W23" s="53"/>
       <c r="X23" s="48"/>
       <c r="Y23" s="48"/>
       <c r="Z23" s="48"/>
       <c r="AA23" s="48"/>
       <c r="AB23" s="48"/>
       <c r="AC23" s="49"/>
-      <c r="AD23" s="72"/>
+      <c r="AD23" s="53"/>
       <c r="AE23" s="48"/>
       <c r="AF23" s="48"/>
       <c r="AG23" s="48"/>
       <c r="AH23" s="48"/>
       <c r="AI23" s="48"/>
       <c r="AJ23" s="49"/>
-      <c r="AK23" s="72"/>
+      <c r="AK23" s="53"/>
       <c r="AL23" s="48"/>
       <c r="AM23" s="49"/>
       <c r="AN23" s="70"/>
@@ -8458,7 +8568,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="31"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="72"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -8476,21 +8586,21 @@
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
       <c r="V25" s="49"/>
-      <c r="W25" s="72"/>
+      <c r="W25" s="53"/>
       <c r="X25" s="48"/>
       <c r="Y25" s="48"/>
       <c r="Z25" s="48"/>
       <c r="AA25" s="48"/>
       <c r="AB25" s="48"/>
       <c r="AC25" s="49"/>
-      <c r="AD25" s="72"/>
+      <c r="AD25" s="53"/>
       <c r="AE25" s="48"/>
       <c r="AF25" s="48"/>
       <c r="AG25" s="48"/>
       <c r="AH25" s="48"/>
       <c r="AI25" s="48"/>
       <c r="AJ25" s="49"/>
-      <c r="AK25" s="72"/>
+      <c r="AK25" s="53"/>
       <c r="AL25" s="48"/>
       <c r="AM25" s="49"/>
       <c r="AN25" s="70"/>
@@ -8523,7 +8633,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="31"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="72"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
@@ -8541,21 +8651,21 @@
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
       <c r="V26" s="49"/>
-      <c r="W26" s="72"/>
+      <c r="W26" s="53"/>
       <c r="X26" s="48"/>
       <c r="Y26" s="48"/>
       <c r="Z26" s="48"/>
       <c r="AA26" s="48"/>
       <c r="AB26" s="48"/>
       <c r="AC26" s="49"/>
-      <c r="AD26" s="72"/>
+      <c r="AD26" s="53"/>
       <c r="AE26" s="48"/>
       <c r="AF26" s="48"/>
       <c r="AG26" s="48"/>
       <c r="AH26" s="48"/>
       <c r="AI26" s="48"/>
       <c r="AJ26" s="49"/>
-      <c r="AK26" s="72"/>
+      <c r="AK26" s="53"/>
       <c r="AL26" s="48"/>
       <c r="AM26" s="49"/>
       <c r="AN26" s="70"/>
@@ -8656,7 +8766,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="83"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
@@ -8673,21 +8783,21 @@
       <c r="T28" s="48"/>
       <c r="U28" s="48"/>
       <c r="V28" s="49"/>
-      <c r="W28" s="72"/>
+      <c r="W28" s="53"/>
       <c r="X28" s="48"/>
       <c r="Y28" s="48"/>
       <c r="Z28" s="48"/>
       <c r="AA28" s="48"/>
       <c r="AB28" s="48"/>
       <c r="AC28" s="49"/>
-      <c r="AD28" s="72"/>
+      <c r="AD28" s="53"/>
       <c r="AE28" s="48"/>
       <c r="AF28" s="48"/>
       <c r="AG28" s="48"/>
       <c r="AH28" s="48"/>
       <c r="AI28" s="48"/>
       <c r="AJ28" s="49"/>
-      <c r="AK28" s="72"/>
+      <c r="AK28" s="53"/>
       <c r="AL28" s="48"/>
       <c r="AM28" s="49"/>
       <c r="AN28" s="70"/>
@@ -8721,7 +8831,7 @@
       <c r="C29" s="31"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="83"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
@@ -8738,21 +8848,21 @@
       <c r="T29" s="48"/>
       <c r="U29" s="48"/>
       <c r="V29" s="49"/>
-      <c r="W29" s="72"/>
+      <c r="W29" s="53"/>
       <c r="X29" s="48"/>
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
       <c r="AA29" s="48"/>
       <c r="AB29" s="48"/>
       <c r="AC29" s="49"/>
-      <c r="AD29" s="72"/>
+      <c r="AD29" s="53"/>
       <c r="AE29" s="48"/>
       <c r="AF29" s="48"/>
       <c r="AG29" s="48"/>
       <c r="AH29" s="48"/>
       <c r="AI29" s="48"/>
       <c r="AJ29" s="49"/>
-      <c r="AK29" s="72"/>
+      <c r="AK29" s="53"/>
       <c r="AL29" s="48"/>
       <c r="AM29" s="49"/>
       <c r="AN29" s="70"/>
@@ -8786,7 +8896,7 @@
       <c r="C30" s="31"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="83"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
       <c r="I30" s="48"/>
@@ -8803,21 +8913,21 @@
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
       <c r="V30" s="49"/>
-      <c r="W30" s="72"/>
+      <c r="W30" s="53"/>
       <c r="X30" s="48"/>
       <c r="Y30" s="48"/>
       <c r="Z30" s="48"/>
       <c r="AA30" s="48"/>
       <c r="AB30" s="48"/>
       <c r="AC30" s="49"/>
-      <c r="AD30" s="72"/>
+      <c r="AD30" s="53"/>
       <c r="AE30" s="48"/>
       <c r="AF30" s="48"/>
       <c r="AG30" s="48"/>
       <c r="AH30" s="48"/>
       <c r="AI30" s="48"/>
       <c r="AJ30" s="49"/>
-      <c r="AK30" s="72"/>
+      <c r="AK30" s="53"/>
       <c r="AL30" s="48"/>
       <c r="AM30" s="49"/>
       <c r="AN30" s="70"/>
@@ -8916,7 +9026,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="48"/>
@@ -8937,7 +9047,7 @@
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
       <c r="V32" s="49"/>
-      <c r="W32" s="71" t="s">
+      <c r="W32" s="67" t="s">
         <v>7</v>
       </c>
       <c r="X32" s="48"/>
@@ -8946,7 +9056,7 @@
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
       <c r="AC32" s="49"/>
-      <c r="AD32" s="71" t="s">
+      <c r="AD32" s="67" t="s">
         <v>8</v>
       </c>
       <c r="AE32" s="48"/>
@@ -8955,12 +9065,12 @@
       <c r="AH32" s="48"/>
       <c r="AI32" s="48"/>
       <c r="AJ32" s="49"/>
-      <c r="AK32" s="71" t="s">
+      <c r="AK32" s="67" t="s">
         <v>21</v>
       </c>
       <c r="AL32" s="48"/>
       <c r="AM32" s="49"/>
-      <c r="AN32" s="71" t="s">
+      <c r="AN32" s="67" t="s">
         <v>36</v>
       </c>
       <c r="AO32" s="48"/>
@@ -8991,7 +9101,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="72"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
@@ -9010,21 +9120,21 @@
       <c r="T33" s="48"/>
       <c r="U33" s="48"/>
       <c r="V33" s="49"/>
-      <c r="W33" s="72"/>
+      <c r="W33" s="53"/>
       <c r="X33" s="48"/>
       <c r="Y33" s="48"/>
       <c r="Z33" s="48"/>
       <c r="AA33" s="48"/>
       <c r="AB33" s="48"/>
       <c r="AC33" s="49"/>
-      <c r="AD33" s="72"/>
+      <c r="AD33" s="53"/>
       <c r="AE33" s="48"/>
       <c r="AF33" s="48"/>
       <c r="AG33" s="48"/>
       <c r="AH33" s="48"/>
       <c r="AI33" s="48"/>
       <c r="AJ33" s="49"/>
-      <c r="AK33" s="72"/>
+      <c r="AK33" s="53"/>
       <c r="AL33" s="48"/>
       <c r="AM33" s="49"/>
       <c r="AN33" s="70"/>
@@ -9056,7 +9166,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="72"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="48"/>
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
@@ -9075,21 +9185,21 @@
       <c r="T34" s="48"/>
       <c r="U34" s="48"/>
       <c r="V34" s="49"/>
-      <c r="W34" s="72"/>
+      <c r="W34" s="53"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="48"/>
       <c r="Z34" s="48"/>
       <c r="AA34" s="48"/>
       <c r="AB34" s="48"/>
       <c r="AC34" s="49"/>
-      <c r="AD34" s="72"/>
+      <c r="AD34" s="53"/>
       <c r="AE34" s="48"/>
       <c r="AF34" s="48"/>
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
       <c r="AJ34" s="49"/>
-      <c r="AK34" s="72"/>
+      <c r="AK34" s="53"/>
       <c r="AL34" s="48"/>
       <c r="AM34" s="49"/>
       <c r="AN34" s="70"/>
@@ -9121,7 +9231,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="72"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -9140,21 +9250,21 @@
       <c r="T35" s="48"/>
       <c r="U35" s="48"/>
       <c r="V35" s="49"/>
-      <c r="W35" s="72"/>
+      <c r="W35" s="53"/>
       <c r="X35" s="48"/>
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
       <c r="AA35" s="48"/>
       <c r="AB35" s="48"/>
       <c r="AC35" s="49"/>
-      <c r="AD35" s="72"/>
+      <c r="AD35" s="53"/>
       <c r="AE35" s="48"/>
       <c r="AF35" s="48"/>
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
       <c r="AJ35" s="49"/>
-      <c r="AK35" s="72"/>
+      <c r="AK35" s="53"/>
       <c r="AL35" s="48"/>
       <c r="AM35" s="49"/>
       <c r="AN35" s="70"/>
@@ -9314,6 +9424,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="K10:BJ10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:BJ7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:BJ8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:BJ9"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AN16:BJ16"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AN18:BJ18"/>
+    <mergeCell ref="K11:BJ11"/>
+    <mergeCell ref="K12:BJ12"/>
+    <mergeCell ref="AN19:BJ19"/>
+    <mergeCell ref="D16:V16"/>
+    <mergeCell ref="D17:V17"/>
+    <mergeCell ref="W17:AC17"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="AN17:BJ17"/>
+    <mergeCell ref="D18:V18"/>
+    <mergeCell ref="W18:AC18"/>
+    <mergeCell ref="AD18:AJ18"/>
+    <mergeCell ref="D19:V19"/>
+    <mergeCell ref="W19:AC19"/>
+    <mergeCell ref="AD19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="W16:AC16"/>
+    <mergeCell ref="AD16:AJ16"/>
+    <mergeCell ref="AN21:BJ21"/>
+    <mergeCell ref="AN22:BJ22"/>
+    <mergeCell ref="AN30:BJ30"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="W26:AC26"/>
+    <mergeCell ref="AN29:BJ29"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AD26:AJ26"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="AN23:BJ23"/>
+    <mergeCell ref="AN25:BJ25"/>
+    <mergeCell ref="AN26:BJ26"/>
+    <mergeCell ref="AN28:BJ28"/>
+    <mergeCell ref="D32:V32"/>
+    <mergeCell ref="AN32:BJ32"/>
+    <mergeCell ref="AN33:BJ33"/>
+    <mergeCell ref="AN34:BJ34"/>
+    <mergeCell ref="AN35:BJ35"/>
+    <mergeCell ref="AD30:AJ30"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="W32:AC32"/>
+    <mergeCell ref="AD32:AJ32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="D21:V21"/>
+    <mergeCell ref="D22:V22"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="AD22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="AD21:AJ21"/>
+    <mergeCell ref="D23:V23"/>
+    <mergeCell ref="W23:AC23"/>
+    <mergeCell ref="E25:V25"/>
+    <mergeCell ref="W25:AC25"/>
+    <mergeCell ref="AD25:AJ25"/>
+    <mergeCell ref="AD23:AJ23"/>
+    <mergeCell ref="E26:V26"/>
+    <mergeCell ref="F28:V28"/>
+    <mergeCell ref="W28:AC28"/>
+    <mergeCell ref="AD28:AJ28"/>
+    <mergeCell ref="AK28:AM28"/>
     <mergeCell ref="F29:V29"/>
     <mergeCell ref="W29:AC29"/>
     <mergeCell ref="AD34:AJ34"/>
@@ -9330,82 +9516,6 @@
     <mergeCell ref="W34:AC34"/>
     <mergeCell ref="F30:V30"/>
     <mergeCell ref="W30:AC30"/>
-    <mergeCell ref="E26:V26"/>
-    <mergeCell ref="F28:V28"/>
-    <mergeCell ref="W28:AC28"/>
-    <mergeCell ref="AD28:AJ28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="D23:V23"/>
-    <mergeCell ref="W23:AC23"/>
-    <mergeCell ref="E25:V25"/>
-    <mergeCell ref="W25:AC25"/>
-    <mergeCell ref="AD25:AJ25"/>
-    <mergeCell ref="AD23:AJ23"/>
-    <mergeCell ref="D21:V21"/>
-    <mergeCell ref="D22:V22"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="AD22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="AD21:AJ21"/>
-    <mergeCell ref="AD30:AJ30"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="W32:AC32"/>
-    <mergeCell ref="AD32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="D32:V32"/>
-    <mergeCell ref="AN32:BJ32"/>
-    <mergeCell ref="AN33:BJ33"/>
-    <mergeCell ref="AN34:BJ34"/>
-    <mergeCell ref="AN35:BJ35"/>
-    <mergeCell ref="AN21:BJ21"/>
-    <mergeCell ref="AN22:BJ22"/>
-    <mergeCell ref="AN30:BJ30"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="W26:AC26"/>
-    <mergeCell ref="AN29:BJ29"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AD26:AJ26"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="AN23:BJ23"/>
-    <mergeCell ref="AN25:BJ25"/>
-    <mergeCell ref="AN26:BJ26"/>
-    <mergeCell ref="AN28:BJ28"/>
-    <mergeCell ref="AN19:BJ19"/>
-    <mergeCell ref="D16:V16"/>
-    <mergeCell ref="D17:V17"/>
-    <mergeCell ref="W17:AC17"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AN17:BJ17"/>
-    <mergeCell ref="D18:V18"/>
-    <mergeCell ref="W18:AC18"/>
-    <mergeCell ref="AD18:AJ18"/>
-    <mergeCell ref="D19:V19"/>
-    <mergeCell ref="W19:AC19"/>
-    <mergeCell ref="AD19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="W16:AC16"/>
-    <mergeCell ref="AD16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AN16:BJ16"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AN18:BJ18"/>
-    <mergeCell ref="K11:BJ11"/>
-    <mergeCell ref="K12:BJ12"/>
-    <mergeCell ref="K10:BJ10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:BJ7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:BJ8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:BJ9"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ha-asset/01_design/04_nodeapi/設計書_4.0.ヘルスチェックAPI.xlsx
+++ b/ha-asset/01_design/04_nodeapi/設計書_4.0.ヘルスチェックAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\04_nodeapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E66EEE-9EAF-4CCE-BA22-EAA7FC394F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC54B778-AA0B-42ED-898B-E0A442FDF88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="540" windowWidth="22725" windowHeight="16515" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>更新日時</t>
   </si>
@@ -60,9 +60,6 @@
     <t>必須</t>
   </si>
   <si>
-    <t>2.1.2.処理詳細</t>
-  </si>
-  <si>
     <t>処理概要</t>
   </si>
   <si>
@@ -84,22 +81,13 @@
     <t>エラーメッセージ</t>
   </si>
   <si>
-    <t>2.1.3.DB処理</t>
-  </si>
-  <si>
     <t>入力</t>
-  </si>
-  <si>
-    <t>2.1.4.備考</t>
   </si>
   <si>
     <t>文字コード</t>
   </si>
   <si>
     <t>byte数</t>
-  </si>
-  <si>
-    <t>2.1.1.API仕様</t>
   </si>
   <si>
     <t>API名</t>
@@ -422,6 +410,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -441,6 +430,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -862,6 +852,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -876,20 +872,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,67 +940,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,681 +1245,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="51"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="51">
+      <c r="B4" s="53">
         <v>44353</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="52" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="47" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="49"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="51"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="51"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="51"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="51"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="51"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="2"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="51"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="2"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="51"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="51"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="2"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="51"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="51"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="51"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="51"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="51"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="2"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="51"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="2"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="51"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="2"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="51"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="2"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="51"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="51"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="2"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="51"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="2"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="51"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27">
@@ -1992,6 +1982,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2001,66 +2051,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2190,7 +2180,7 @@
     <row r="3" spans="1:49">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2244,7 +2234,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3684,9 +3674,7 @@
   </sheetPr>
   <dimension ref="A1:BP43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -3907,8 +3895,9 @@
       <c r="BP3" s="2"/>
     </row>
     <row r="4" spans="1:68" ht="16.5">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
+      <c r="A4" s="8" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"1.API仕様"</f>
+        <v>2.1.1.API仕様</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -4051,7 +4040,7 @@
     <row r="6" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -4123,304 +4112,304 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="67" t="s">
-        <v>24</v>
+      <c r="C7" s="58" t="s">
+        <v>20</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="53" t="s">
-        <v>52</v>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="70" t="s">
+        <v>48</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="48"/>
-      <c r="BK7" s="48"/>
-      <c r="BL7" s="48"/>
-      <c r="BM7" s="48"/>
-      <c r="BN7" s="48"/>
-      <c r="BO7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="50"/>
+      <c r="BA7" s="50"/>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="50"/>
+      <c r="BD7" s="50"/>
+      <c r="BE7" s="50"/>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="50"/>
+      <c r="BJ7" s="50"/>
+      <c r="BK7" s="50"/>
+      <c r="BL7" s="50"/>
+      <c r="BM7" s="50"/>
+      <c r="BN7" s="50"/>
+      <c r="BO7" s="51"/>
       <c r="BP7" s="2"/>
     </row>
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="67" t="s">
-        <v>20</v>
+      <c r="C8" s="58" t="s">
+        <v>17</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="53" t="s">
-        <v>26</v>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="70" t="s">
+        <v>22</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="48"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="48"/>
-      <c r="AZ8" s="48"/>
-      <c r="BA8" s="48"/>
-      <c r="BB8" s="48"/>
-      <c r="BC8" s="48"/>
-      <c r="BD8" s="48"/>
-      <c r="BE8" s="48"/>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="48"/>
-      <c r="BH8" s="48"/>
-      <c r="BI8" s="48"/>
-      <c r="BJ8" s="48"/>
-      <c r="BK8" s="48"/>
-      <c r="BL8" s="48"/>
-      <c r="BM8" s="48"/>
-      <c r="BN8" s="48"/>
-      <c r="BO8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="50"/>
+      <c r="AX8" s="50"/>
+      <c r="AY8" s="50"/>
+      <c r="AZ8" s="50"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="50"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="50"/>
+      <c r="BK8" s="50"/>
+      <c r="BL8" s="50"/>
+      <c r="BM8" s="50"/>
+      <c r="BN8" s="50"/>
+      <c r="BO8" s="51"/>
       <c r="BP8" s="2"/>
     </row>
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="67" t="s">
-        <v>27</v>
+      <c r="C9" s="58" t="s">
+        <v>23</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="53" t="s">
-        <v>28</v>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="70" t="s">
+        <v>24</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="48"/>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="48"/>
-      <c r="BJ9" s="48"/>
-      <c r="BK9" s="48"/>
-      <c r="BL9" s="48"/>
-      <c r="BM9" s="48"/>
-      <c r="BN9" s="48"/>
-      <c r="BO9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="50"/>
+      <c r="BM9" s="50"/>
+      <c r="BN9" s="50"/>
+      <c r="BO9" s="51"/>
       <c r="BP9" s="2"/>
     </row>
     <row r="10" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="67" t="s">
-        <v>95</v>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="58" t="s">
+        <v>91</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87" t="s">
-        <v>96</v>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60" t="s">
+        <v>92</v>
       </c>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="87"/>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="87"/>
-      <c r="BD10" s="87"/>
-      <c r="BE10" s="87"/>
-      <c r="BF10" s="87"/>
-      <c r="BG10" s="87"/>
-      <c r="BH10" s="87"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="87"/>
-      <c r="BK10" s="87"/>
-      <c r="BL10" s="87"/>
-      <c r="BM10" s="87"/>
-      <c r="BN10" s="87"/>
-      <c r="BO10" s="87"/>
-      <c r="BP10" s="84"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+      <c r="BB10" s="60"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="60"/>
+      <c r="BE10" s="60"/>
+      <c r="BF10" s="60"/>
+      <c r="BG10" s="60"/>
+      <c r="BH10" s="60"/>
+      <c r="BI10" s="60"/>
+      <c r="BJ10" s="60"/>
+      <c r="BK10" s="60"/>
+      <c r="BL10" s="60"/>
+      <c r="BM10" s="60"/>
+      <c r="BN10" s="60"/>
+      <c r="BO10" s="60"/>
+      <c r="BP10" s="47"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="14"/>
       <c r="C11" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -4492,157 +4481,157 @@
       <c r="A12" s="2"/>
       <c r="B12" s="14"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="53" t="s">
-        <v>30</v>
+      <c r="D12" s="70" t="s">
+        <v>26</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="70" t="s">
-        <v>31</v>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="77" t="s">
+        <v>27</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="48"/>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="48"/>
-      <c r="BK12" s="48"/>
-      <c r="BL12" s="48"/>
-      <c r="BM12" s="48"/>
-      <c r="BN12" s="48"/>
-      <c r="BO12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="50"/>
+      <c r="BK12" s="50"/>
+      <c r="BL12" s="50"/>
+      <c r="BM12" s="50"/>
+      <c r="BN12" s="50"/>
+      <c r="BO12" s="51"/>
       <c r="BP12" s="2"/>
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="14"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="53" t="s">
-        <v>32</v>
+      <c r="D13" s="70" t="s">
+        <v>28</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="70" t="s">
-        <v>33</v>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="77" t="s">
+        <v>29</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
-      <c r="BJ13" s="48"/>
-      <c r="BK13" s="48"/>
-      <c r="BL13" s="48"/>
-      <c r="BM13" s="48"/>
-      <c r="BN13" s="48"/>
-      <c r="BO13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="50"/>
+      <c r="BD13" s="50"/>
+      <c r="BE13" s="50"/>
+      <c r="BF13" s="50"/>
+      <c r="BG13" s="50"/>
+      <c r="BH13" s="50"/>
+      <c r="BI13" s="50"/>
+      <c r="BJ13" s="50"/>
+      <c r="BK13" s="50"/>
+      <c r="BL13" s="50"/>
+      <c r="BM13" s="50"/>
+      <c r="BN13" s="50"/>
+      <c r="BO13" s="51"/>
       <c r="BP13" s="2"/>
     </row>
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="71" t="s">
-        <v>34</v>
+      <c r="B14" s="61" t="s">
+        <v>30</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -4711,162 +4700,162 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="50" t="s">
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="67" t="s">
-        <v>21</v>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="58" t="s">
+        <v>18</v>
       </c>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="49"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="51"/>
       <c r="AH15" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AI15" s="27"/>
       <c r="AJ15" s="27"/>
-      <c r="AK15" s="50" t="s">
-        <v>36</v>
+      <c r="AK15" s="52" t="s">
+        <v>32</v>
       </c>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="48"/>
-      <c r="BC15" s="48"/>
-      <c r="BD15" s="48"/>
-      <c r="BE15" s="48"/>
-      <c r="BF15" s="48"/>
-      <c r="BG15" s="48"/>
-      <c r="BH15" s="48"/>
-      <c r="BI15" s="48"/>
-      <c r="BJ15" s="48"/>
-      <c r="BK15" s="48"/>
-      <c r="BL15" s="48"/>
-      <c r="BM15" s="48"/>
-      <c r="BN15" s="48"/>
-      <c r="BO15" s="49"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
+      <c r="BD15" s="50"/>
+      <c r="BE15" s="50"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
+      <c r="BJ15" s="50"/>
+      <c r="BK15" s="50"/>
+      <c r="BL15" s="50"/>
+      <c r="BM15" s="50"/>
+      <c r="BN15" s="50"/>
+      <c r="BO15" s="51"/>
       <c r="BP15" s="2"/>
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="61"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="61"/>
-      <c r="AN16" s="61"/>
-      <c r="AO16" s="61"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="61"/>
-      <c r="AR16" s="61"/>
-      <c r="AS16" s="61"/>
-      <c r="AT16" s="61"/>
-      <c r="AU16" s="61"/>
-      <c r="AV16" s="61"/>
-      <c r="AW16" s="61"/>
-      <c r="AX16" s="61"/>
-      <c r="AY16" s="61"/>
-      <c r="AZ16" s="61"/>
-      <c r="BA16" s="61"/>
-      <c r="BB16" s="61"/>
-      <c r="BC16" s="61"/>
-      <c r="BD16" s="61"/>
-      <c r="BE16" s="61"/>
-      <c r="BF16" s="61"/>
-      <c r="BG16" s="61"/>
-      <c r="BH16" s="61"/>
-      <c r="BI16" s="61"/>
-      <c r="BJ16" s="61"/>
-      <c r="BK16" s="61"/>
-      <c r="BL16" s="61"/>
-      <c r="BM16" s="61"/>
-      <c r="BN16" s="61"/>
-      <c r="BO16" s="62"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="55"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="80"/>
+      <c r="AP16" s="80"/>
+      <c r="AQ16" s="80"/>
+      <c r="AR16" s="80"/>
+      <c r="AS16" s="80"/>
+      <c r="AT16" s="80"/>
+      <c r="AU16" s="80"/>
+      <c r="AV16" s="80"/>
+      <c r="AW16" s="80"/>
+      <c r="AX16" s="80"/>
+      <c r="AY16" s="80"/>
+      <c r="AZ16" s="80"/>
+      <c r="BA16" s="80"/>
+      <c r="BB16" s="80"/>
+      <c r="BC16" s="80"/>
+      <c r="BD16" s="80"/>
+      <c r="BE16" s="80"/>
+      <c r="BF16" s="80"/>
+      <c r="BG16" s="80"/>
+      <c r="BH16" s="80"/>
+      <c r="BI16" s="80"/>
+      <c r="BJ16" s="80"/>
+      <c r="BK16" s="80"/>
+      <c r="BL16" s="80"/>
+      <c r="BM16" s="80"/>
+      <c r="BN16" s="80"/>
+      <c r="BO16" s="81"/>
       <c r="BP16" s="2"/>
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="71" t="s">
-        <v>37</v>
+      <c r="B17" s="61" t="s">
+        <v>33</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -4935,239 +4924,239 @@
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="50" t="s">
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="67" t="s">
-        <v>21</v>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="58" t="s">
+        <v>18</v>
       </c>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="49"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="51"/>
       <c r="AH18" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AI18" s="27"/>
       <c r="AJ18" s="27"/>
-      <c r="AK18" s="50" t="s">
-        <v>36</v>
+      <c r="AK18" s="52" t="s">
+        <v>32</v>
       </c>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
-      <c r="AZ18" s="48"/>
-      <c r="BA18" s="48"/>
-      <c r="BB18" s="48"/>
-      <c r="BC18" s="48"/>
-      <c r="BD18" s="48"/>
-      <c r="BE18" s="48"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48"/>
-      <c r="BH18" s="48"/>
-      <c r="BI18" s="48"/>
-      <c r="BJ18" s="48"/>
-      <c r="BK18" s="48"/>
-      <c r="BL18" s="48"/>
-      <c r="BM18" s="48"/>
-      <c r="BN18" s="48"/>
-      <c r="BO18" s="49"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="51"/>
       <c r="BP18" s="2"/>
     </row>
     <row r="19" spans="1:68" ht="48" customHeight="1" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="53" t="s">
-        <v>87</v>
+      <c r="C19" s="70" t="s">
+        <v>83</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="60" t="s">
-        <v>50</v>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="55" t="s">
+        <v>46</v>
       </c>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="60" t="s">
-        <v>51</v>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="55" t="s">
+        <v>47</v>
       </c>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="47">
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="49">
         <v>1</v>
       </c>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="63" t="s">
-        <v>88</v>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="82" t="s">
+        <v>84</v>
       </c>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="54"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="54"/>
-      <c r="BA19" s="54"/>
-      <c r="BB19" s="54"/>
-      <c r="BC19" s="54"/>
-      <c r="BD19" s="54"/>
-      <c r="BE19" s="54"/>
-      <c r="BF19" s="54"/>
-      <c r="BG19" s="54"/>
-      <c r="BH19" s="54"/>
-      <c r="BI19" s="54"/>
-      <c r="BJ19" s="54"/>
-      <c r="BK19" s="54"/>
-      <c r="BL19" s="54"/>
-      <c r="BM19" s="54"/>
-      <c r="BN19" s="54"/>
-      <c r="BO19" s="55"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="56"/>
+      <c r="BK19" s="56"/>
+      <c r="BL19" s="56"/>
+      <c r="BM19" s="56"/>
+      <c r="BN19" s="56"/>
+      <c r="BO19" s="57"/>
       <c r="BP19" s="2"/>
     </row>
     <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="53" t="s">
-        <v>89</v>
+      <c r="C20" s="70" t="s">
+        <v>85</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="60" t="s">
-        <v>58</v>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="55" t="s">
+        <v>54</v>
       </c>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="60" t="s">
-        <v>90</v>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="55" t="s">
+        <v>86</v>
       </c>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="54"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="54"/>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="54"/>
-      <c r="AS20" s="54"/>
-      <c r="AT20" s="54"/>
-      <c r="AU20" s="54"/>
-      <c r="AV20" s="54"/>
-      <c r="AW20" s="54"/>
-      <c r="AX20" s="54"/>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="54"/>
-      <c r="BA20" s="54"/>
-      <c r="BB20" s="54"/>
-      <c r="BC20" s="54"/>
-      <c r="BD20" s="54"/>
-      <c r="BE20" s="54"/>
-      <c r="BF20" s="54"/>
-      <c r="BG20" s="54"/>
-      <c r="BH20" s="54"/>
-      <c r="BI20" s="54"/>
-      <c r="BJ20" s="54"/>
-      <c r="BK20" s="54"/>
-      <c r="BL20" s="54"/>
-      <c r="BM20" s="54"/>
-      <c r="BN20" s="54"/>
-      <c r="BO20" s="55"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="56"/>
+      <c r="BK20" s="56"/>
+      <c r="BL20" s="56"/>
+      <c r="BM20" s="56"/>
+      <c r="BN20" s="56"/>
+      <c r="BO20" s="57"/>
       <c r="BP20" s="2"/>
     </row>
     <row r="21" spans="1:68" ht="16.5">
@@ -5241,8 +5230,9 @@
       <c r="BP21" s="2"/>
     </row>
     <row r="22" spans="1:68" ht="16.5">
-      <c r="A22" s="8" t="s">
-        <v>9</v>
+      <c r="A22" s="8" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"2.処理詳細"</f>
+        <v>2.1.2.処理詳細</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5384,158 +5374,158 @@
     </row>
     <row r="24" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="77" t="s">
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="78"/>
-      <c r="AC24" s="77" t="s">
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="78"/>
-      <c r="AL24" s="75" t="s">
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="50"/>
+      <c r="BJ24" s="50"/>
+      <c r="BK24" s="50"/>
+      <c r="BL24" s="50"/>
+      <c r="BM24" s="50"/>
+      <c r="BN24" s="50"/>
+      <c r="BO24" s="51"/>
+      <c r="BP24" s="2"/>
+    </row>
+    <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="69"/>
+      <c r="AL25" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="48"/>
-      <c r="BA24" s="48"/>
-      <c r="BB24" s="48"/>
-      <c r="BC24" s="48"/>
-      <c r="BD24" s="48"/>
-      <c r="BE24" s="48"/>
-      <c r="BF24" s="48"/>
-      <c r="BG24" s="48"/>
-      <c r="BH24" s="48"/>
-      <c r="BI24" s="48"/>
-      <c r="BJ24" s="48"/>
-      <c r="BK24" s="48"/>
-      <c r="BL24" s="48"/>
-      <c r="BM24" s="48"/>
-      <c r="BN24" s="48"/>
-      <c r="BO24" s="49"/>
-      <c r="BP24" s="2"/>
-    </row>
-    <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="80"/>
-      <c r="AL25" s="76" t="s">
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="76" t="s">
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA25" s="48"/>
-      <c r="BB25" s="48"/>
-      <c r="BC25" s="48"/>
-      <c r="BD25" s="48"/>
-      <c r="BE25" s="48"/>
-      <c r="BF25" s="48"/>
-      <c r="BG25" s="48"/>
-      <c r="BH25" s="48"/>
-      <c r="BI25" s="48"/>
-      <c r="BJ25" s="48"/>
-      <c r="BK25" s="48"/>
-      <c r="BL25" s="48"/>
-      <c r="BM25" s="48"/>
-      <c r="BN25" s="48"/>
-      <c r="BO25" s="49"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="50"/>
+      <c r="BC25" s="50"/>
+      <c r="BD25" s="50"/>
+      <c r="BE25" s="50"/>
+      <c r="BF25" s="50"/>
+      <c r="BG25" s="50"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="50"/>
+      <c r="BJ25" s="50"/>
+      <c r="BK25" s="50"/>
+      <c r="BL25" s="50"/>
+      <c r="BM25" s="50"/>
+      <c r="BN25" s="50"/>
+      <c r="BO25" s="51"/>
       <c r="BP25" s="2"/>
     </row>
     <row r="26" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
@@ -5544,73 +5534,73 @@
         <f ca="1">MAX(B$24:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C26" s="53" t="s">
-        <v>91</v>
+      <c r="C26" s="70" t="s">
+        <v>87</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="48"/>
-      <c r="AW26" s="48"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="74"/>
-      <c r="BA26" s="48"/>
-      <c r="BB26" s="48"/>
-      <c r="BC26" s="48"/>
-      <c r="BD26" s="48"/>
-      <c r="BE26" s="48"/>
-      <c r="BF26" s="48"/>
-      <c r="BG26" s="48"/>
-      <c r="BH26" s="48"/>
-      <c r="BI26" s="48"/>
-      <c r="BJ26" s="48"/>
-      <c r="BK26" s="48"/>
-      <c r="BL26" s="48"/>
-      <c r="BM26" s="48"/>
-      <c r="BN26" s="48"/>
-      <c r="BO26" s="49"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="75"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="50"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="76"/>
+      <c r="BA26" s="50"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="50"/>
+      <c r="BD26" s="50"/>
+      <c r="BE26" s="50"/>
+      <c r="BF26" s="50"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="50"/>
+      <c r="BI26" s="50"/>
+      <c r="BJ26" s="50"/>
+      <c r="BK26" s="50"/>
+      <c r="BL26" s="50"/>
+      <c r="BM26" s="50"/>
+      <c r="BN26" s="50"/>
+      <c r="BO26" s="51"/>
       <c r="BP26" s="2"/>
     </row>
     <row r="27" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
@@ -5619,73 +5609,73 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C27" s="53" t="s">
-        <v>92</v>
+      <c r="C27" s="70" t="s">
+        <v>88</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="54"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="54"/>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="54"/>
-      <c r="AP27" s="54"/>
-      <c r="AQ27" s="54"/>
-      <c r="AR27" s="54"/>
-      <c r="AS27" s="54"/>
-      <c r="AT27" s="55"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="54"/>
-      <c r="AW27" s="54"/>
-      <c r="AX27" s="54"/>
-      <c r="AY27" s="55"/>
-      <c r="AZ27" s="74"/>
-      <c r="BA27" s="54"/>
-      <c r="BB27" s="54"/>
-      <c r="BC27" s="54"/>
-      <c r="BD27" s="54"/>
-      <c r="BE27" s="54"/>
-      <c r="BF27" s="54"/>
-      <c r="BG27" s="54"/>
-      <c r="BH27" s="54"/>
-      <c r="BI27" s="54"/>
-      <c r="BJ27" s="54"/>
-      <c r="BK27" s="54"/>
-      <c r="BL27" s="54"/>
-      <c r="BM27" s="54"/>
-      <c r="BN27" s="54"/>
-      <c r="BO27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="75"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="76"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BG27" s="56"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="56"/>
+      <c r="BK27" s="56"/>
+      <c r="BL27" s="56"/>
+      <c r="BM27" s="56"/>
+      <c r="BN27" s="56"/>
+      <c r="BO27" s="57"/>
       <c r="BP27" s="16"/>
     </row>
     <row r="28" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
@@ -5694,73 +5684,73 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C28" s="53" t="s">
-        <v>93</v>
+      <c r="C28" s="70" t="s">
+        <v>89</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="54"/>
-      <c r="AN28" s="54"/>
-      <c r="AO28" s="54"/>
-      <c r="AP28" s="54"/>
-      <c r="AQ28" s="54"/>
-      <c r="AR28" s="54"/>
-      <c r="AS28" s="54"/>
-      <c r="AT28" s="55"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="54"/>
-      <c r="AW28" s="54"/>
-      <c r="AX28" s="54"/>
-      <c r="AY28" s="55"/>
-      <c r="AZ28" s="74"/>
-      <c r="BA28" s="54"/>
-      <c r="BB28" s="54"/>
-      <c r="BC28" s="54"/>
-      <c r="BD28" s="54"/>
-      <c r="BE28" s="54"/>
-      <c r="BF28" s="54"/>
-      <c r="BG28" s="54"/>
-      <c r="BH28" s="54"/>
-      <c r="BI28" s="54"/>
-      <c r="BJ28" s="54"/>
-      <c r="BK28" s="54"/>
-      <c r="BL28" s="54"/>
-      <c r="BM28" s="54"/>
-      <c r="BN28" s="54"/>
-      <c r="BO28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="75"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="56"/>
+      <c r="BL28" s="56"/>
+      <c r="BM28" s="56"/>
+      <c r="BN28" s="56"/>
+      <c r="BO28" s="57"/>
       <c r="BP28" s="16"/>
     </row>
     <row r="29" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
@@ -5769,73 +5759,73 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C29" s="53" t="s">
-        <v>94</v>
+      <c r="C29" s="70" t="s">
+        <v>90</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="54"/>
-      <c r="AT29" s="55"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="54"/>
-      <c r="AW29" s="54"/>
-      <c r="AX29" s="54"/>
-      <c r="AY29" s="55"/>
-      <c r="AZ29" s="74"/>
-      <c r="BA29" s="54"/>
-      <c r="BB29" s="54"/>
-      <c r="BC29" s="54"/>
-      <c r="BD29" s="54"/>
-      <c r="BE29" s="54"/>
-      <c r="BF29" s="54"/>
-      <c r="BG29" s="54"/>
-      <c r="BH29" s="54"/>
-      <c r="BI29" s="54"/>
-      <c r="BJ29" s="54"/>
-      <c r="BK29" s="54"/>
-      <c r="BL29" s="54"/>
-      <c r="BM29" s="54"/>
-      <c r="BN29" s="54"/>
-      <c r="BO29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="75"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+      <c r="AX29" s="56"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="76"/>
+      <c r="BA29" s="56"/>
+      <c r="BB29" s="56"/>
+      <c r="BC29" s="56"/>
+      <c r="BD29" s="56"/>
+      <c r="BE29" s="56"/>
+      <c r="BF29" s="56"/>
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+      <c r="BI29" s="56"/>
+      <c r="BJ29" s="56"/>
+      <c r="BK29" s="56"/>
+      <c r="BL29" s="56"/>
+      <c r="BM29" s="56"/>
+      <c r="BN29" s="56"/>
+      <c r="BO29" s="57"/>
       <c r="BP29" s="16"/>
     </row>
     <row r="30" spans="1:68" ht="16.5">
@@ -5909,8 +5899,9 @@
       <c r="BP30" s="2"/>
     </row>
     <row r="31" spans="1:68" ht="16.5">
-      <c r="A31" s="8" t="s">
-        <v>17</v>
+      <c r="A31" s="8" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"3.DB処理"</f>
+        <v>2.1.3.DB処理</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6121,8 +6112,9 @@
       <c r="BP33" s="2"/>
     </row>
     <row r="34" spans="1:68" ht="16.5">
-      <c r="A34" s="8" t="s">
-        <v>19</v>
+      <c r="A34" s="8" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
+        <v>2.1.4.備考</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6824,58 +6816,18 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AL24:BO24"/>
-    <mergeCell ref="AL25:AT25"/>
-    <mergeCell ref="AU25:AY25"/>
-    <mergeCell ref="AZ25:BO25"/>
-    <mergeCell ref="AC24:AK25"/>
-    <mergeCell ref="C19:P19"/>
-    <mergeCell ref="C20:P20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:K25"/>
-    <mergeCell ref="L24:AB25"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AZ26:BO26"/>
-    <mergeCell ref="AL27:AT27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AZ27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="I13:BO13"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="C16:P16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:AB28"/>
+    <mergeCell ref="AC28:AK28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:AB26"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:AB27"/>
+    <mergeCell ref="AC27:AK27"/>
     <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AK16:BO16"/>
     <mergeCell ref="AK19:BO19"/>
@@ -6886,18 +6838,58 @@
     <mergeCell ref="AH19:AJ19"/>
     <mergeCell ref="AE18:AG18"/>
     <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:AB26"/>
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:AB27"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:AB28"/>
-    <mergeCell ref="AC28:AK28"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AZ26:BO26"/>
+    <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AZ27:BO27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:K25"/>
+    <mergeCell ref="L24:AB25"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AL24:BO24"/>
+    <mergeCell ref="AL25:AT25"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="AZ25:BO25"/>
+    <mergeCell ref="AC24:AK25"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="C19:P19"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="I13:BO13"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Q15:W15"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7156,7 +7148,7 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -7289,7 +7281,7 @@
     <row r="6" spans="1:63" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7356,403 +7348,403 @@
     <row r="7" spans="1:63" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="83" t="s">
-        <v>40</v>
+      <c r="C7" s="86" t="s">
+        <v>36</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="50"/>
+      <c r="BA7" s="50"/>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="50"/>
+      <c r="BD7" s="50"/>
+      <c r="BE7" s="50"/>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="50"/>
+      <c r="BJ7" s="51"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="1:63" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="83" t="s">
-        <v>41</v>
+      <c r="C8" s="86" t="s">
+        <v>37</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="48"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="48"/>
-      <c r="AZ8" s="48"/>
-      <c r="BA8" s="48"/>
-      <c r="BB8" s="48"/>
-      <c r="BC8" s="48"/>
-      <c r="BD8" s="48"/>
-      <c r="BE8" s="48"/>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="48"/>
-      <c r="BH8" s="48"/>
-      <c r="BI8" s="48"/>
-      <c r="BJ8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="50"/>
+      <c r="AX8" s="50"/>
+      <c r="AY8" s="50"/>
+      <c r="AZ8" s="50"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="50"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="51"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="1:63" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="83" t="s">
-        <v>20</v>
+      <c r="C9" s="86" t="s">
+        <v>17</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="48"/>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="48"/>
-      <c r="BJ9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="51"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="1:63" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="83" t="s">
-        <v>42</v>
+      <c r="C10" s="86" t="s">
+        <v>38</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="48"/>
-      <c r="BE10" s="48"/>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="48"/>
-      <c r="BI10" s="48"/>
-      <c r="BJ10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="51"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="1:63" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="83" t="s">
-        <v>43</v>
+      <c r="C11" s="86" t="s">
+        <v>39</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="48"/>
-      <c r="BJ11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
+      <c r="BJ11" s="51"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="1:63" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="83" t="s">
-        <v>44</v>
+      <c r="C12" s="86" t="s">
+        <v>40</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="48"/>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="51"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="1:63" outlineLevel="1">
@@ -7823,7 +7815,7 @@
     <row r="14" spans="1:63" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7891,7 +7883,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -7958,277 +7950,277 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="67" t="s">
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="67" t="s">
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="67" t="s">
-        <v>21</v>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="58" t="s">
+        <v>18</v>
       </c>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="67" t="s">
-        <v>36</v>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="58" t="s">
+        <v>32</v>
       </c>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="48"/>
-      <c r="AZ16" s="48"/>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="48"/>
-      <c r="BC16" s="48"/>
-      <c r="BD16" s="48"/>
-      <c r="BE16" s="48"/>
-      <c r="BF16" s="48"/>
-      <c r="BG16" s="48"/>
-      <c r="BH16" s="48"/>
-      <c r="BI16" s="48"/>
-      <c r="BJ16" s="49"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="50"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="51"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="1:63" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="70"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="48"/>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="48"/>
-      <c r="BC17" s="48"/>
-      <c r="BD17" s="48"/>
-      <c r="BE17" s="48"/>
-      <c r="BF17" s="48"/>
-      <c r="BG17" s="48"/>
-      <c r="BH17" s="48"/>
-      <c r="BI17" s="48"/>
-      <c r="BJ17" s="49"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="51"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="1:63" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="53"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="70"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
-      <c r="AZ18" s="48"/>
-      <c r="BA18" s="48"/>
-      <c r="BB18" s="48"/>
-      <c r="BC18" s="48"/>
-      <c r="BD18" s="48"/>
-      <c r="BE18" s="48"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48"/>
-      <c r="BH18" s="48"/>
-      <c r="BI18" s="48"/>
-      <c r="BJ18" s="49"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="77"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="51"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="1:63" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="70"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
-      <c r="BD19" s="48"/>
-      <c r="BE19" s="48"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="48"/>
-      <c r="BJ19" s="49"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="51"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="1:63" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -8295,205 +8287,205 @@
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="67" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="67" t="s">
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="67" t="s">
-        <v>21</v>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="58" t="s">
+        <v>18</v>
       </c>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="67" t="s">
-        <v>36</v>
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="58" t="s">
+        <v>32</v>
       </c>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="48"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
-      <c r="AV21" s="48"/>
-      <c r="AW21" s="48"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="48"/>
-      <c r="AZ21" s="48"/>
-      <c r="BA21" s="48"/>
-      <c r="BB21" s="48"/>
-      <c r="BC21" s="48"/>
-      <c r="BD21" s="48"/>
-      <c r="BE21" s="48"/>
-      <c r="BF21" s="48"/>
-      <c r="BG21" s="48"/>
-      <c r="BH21" s="48"/>
-      <c r="BI21" s="48"/>
-      <c r="BJ21" s="49"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="50"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="50"/>
+      <c r="BB21" s="50"/>
+      <c r="BC21" s="50"/>
+      <c r="BD21" s="50"/>
+      <c r="BE21" s="50"/>
+      <c r="BF21" s="50"/>
+      <c r="BG21" s="50"/>
+      <c r="BH21" s="50"/>
+      <c r="BI21" s="50"/>
+      <c r="BJ21" s="51"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="1:63" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="70"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="48"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="48"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="48"/>
-      <c r="AZ22" s="48"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="48"/>
-      <c r="BD22" s="48"/>
-      <c r="BE22" s="48"/>
-      <c r="BF22" s="48"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="48"/>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="49"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="50"/>
+      <c r="BE22" s="50"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="50"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="51"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="1:63" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="70"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="48"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="48"/>
-      <c r="BD23" s="48"/>
-      <c r="BE23" s="48"/>
-      <c r="BF23" s="48"/>
-      <c r="BG23" s="48"/>
-      <c r="BH23" s="48"/>
-      <c r="BI23" s="48"/>
-      <c r="BJ23" s="49"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
+      <c r="BB23" s="50"/>
+      <c r="BC23" s="50"/>
+      <c r="BD23" s="50"/>
+      <c r="BE23" s="50"/>
+      <c r="BF23" s="50"/>
+      <c r="BG23" s="50"/>
+      <c r="BH23" s="50"/>
+      <c r="BI23" s="50"/>
+      <c r="BJ23" s="51"/>
       <c r="BK23" s="2"/>
     </row>
     <row r="24" spans="1:63" outlineLevel="1">
@@ -8501,7 +8493,7 @@
       <c r="B24" s="3"/>
       <c r="C24" s="31"/>
       <c r="D24" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -8568,64 +8560,64 @@
       <c r="B25" s="3"/>
       <c r="C25" s="31"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="53"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="70"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="48"/>
-      <c r="AU25" s="48"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="48"/>
-      <c r="BA25" s="48"/>
-      <c r="BB25" s="48"/>
-      <c r="BC25" s="48"/>
-      <c r="BD25" s="48"/>
-      <c r="BE25" s="48"/>
-      <c r="BF25" s="48"/>
-      <c r="BG25" s="48"/>
-      <c r="BH25" s="48"/>
-      <c r="BI25" s="48"/>
-      <c r="BJ25" s="49"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="70"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="50"/>
+      <c r="BC25" s="50"/>
+      <c r="BD25" s="50"/>
+      <c r="BE25" s="50"/>
+      <c r="BF25" s="50"/>
+      <c r="BG25" s="50"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="50"/>
+      <c r="BJ25" s="51"/>
       <c r="BK25" s="2"/>
     </row>
     <row r="26" spans="1:63" outlineLevel="1">
@@ -8633,64 +8625,64 @@
       <c r="B26" s="3"/>
       <c r="C26" s="31"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="70"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="48"/>
-      <c r="AV26" s="48"/>
-      <c r="AW26" s="48"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="48"/>
-      <c r="AZ26" s="48"/>
-      <c r="BA26" s="48"/>
-      <c r="BB26" s="48"/>
-      <c r="BC26" s="48"/>
-      <c r="BD26" s="48"/>
-      <c r="BE26" s="48"/>
-      <c r="BF26" s="48"/>
-      <c r="BG26" s="48"/>
-      <c r="BH26" s="48"/>
-      <c r="BI26" s="48"/>
-      <c r="BJ26" s="49"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="77"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="50"/>
+      <c r="AY26" s="50"/>
+      <c r="AZ26" s="50"/>
+      <c r="BA26" s="50"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="50"/>
+      <c r="BD26" s="50"/>
+      <c r="BE26" s="50"/>
+      <c r="BF26" s="50"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="50"/>
+      <c r="BI26" s="50"/>
+      <c r="BJ26" s="51"/>
       <c r="BK26" s="2"/>
     </row>
     <row r="27" spans="1:63" outlineLevel="1">
@@ -8699,7 +8691,7 @@
       <c r="C27" s="31"/>
       <c r="D27" s="33"/>
       <c r="E27" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="35"/>
@@ -8766,63 +8758,63 @@
       <c r="C28" s="31"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="53"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="70"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="48"/>
-      <c r="AU28" s="48"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="48"/>
-      <c r="AX28" s="48"/>
-      <c r="AY28" s="48"/>
-      <c r="AZ28" s="48"/>
-      <c r="BA28" s="48"/>
-      <c r="BB28" s="48"/>
-      <c r="BC28" s="48"/>
-      <c r="BD28" s="48"/>
-      <c r="BE28" s="48"/>
-      <c r="BF28" s="48"/>
-      <c r="BG28" s="48"/>
-      <c r="BH28" s="48"/>
-      <c r="BI28" s="48"/>
-      <c r="BJ28" s="49"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="77"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="50"/>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="50"/>
+      <c r="BA28" s="50"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="50"/>
+      <c r="BD28" s="50"/>
+      <c r="BE28" s="50"/>
+      <c r="BF28" s="50"/>
+      <c r="BG28" s="50"/>
+      <c r="BH28" s="50"/>
+      <c r="BI28" s="50"/>
+      <c r="BJ28" s="51"/>
       <c r="BK28" s="2"/>
     </row>
     <row r="29" spans="1:63" outlineLevel="1">
@@ -8831,63 +8823,63 @@
       <c r="C29" s="31"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="70"/>
-      <c r="AO29" s="48"/>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="48"/>
-      <c r="AR29" s="48"/>
-      <c r="AS29" s="48"/>
-      <c r="AT29" s="48"/>
-      <c r="AU29" s="48"/>
-      <c r="AV29" s="48"/>
-      <c r="AW29" s="48"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="48"/>
-      <c r="AZ29" s="48"/>
-      <c r="BA29" s="48"/>
-      <c r="BB29" s="48"/>
-      <c r="BC29" s="48"/>
-      <c r="BD29" s="48"/>
-      <c r="BE29" s="48"/>
-      <c r="BF29" s="48"/>
-      <c r="BG29" s="48"/>
-      <c r="BH29" s="48"/>
-      <c r="BI29" s="48"/>
-      <c r="BJ29" s="49"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="77"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="50"/>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="50"/>
+      <c r="AV29" s="50"/>
+      <c r="AW29" s="50"/>
+      <c r="AX29" s="50"/>
+      <c r="AY29" s="50"/>
+      <c r="AZ29" s="50"/>
+      <c r="BA29" s="50"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="50"/>
+      <c r="BD29" s="50"/>
+      <c r="BE29" s="50"/>
+      <c r="BF29" s="50"/>
+      <c r="BG29" s="50"/>
+      <c r="BH29" s="50"/>
+      <c r="BI29" s="50"/>
+      <c r="BJ29" s="51"/>
       <c r="BK29" s="2"/>
     </row>
     <row r="30" spans="1:63" outlineLevel="1">
@@ -8896,70 +8888,70 @@
       <c r="C30" s="31"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="53"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="70"/>
-      <c r="AO30" s="48"/>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
-      <c r="AS30" s="48"/>
-      <c r="AT30" s="48"/>
-      <c r="AU30" s="48"/>
-      <c r="AV30" s="48"/>
-      <c r="AW30" s="48"/>
-      <c r="AX30" s="48"/>
-      <c r="AY30" s="48"/>
-      <c r="AZ30" s="48"/>
-      <c r="BA30" s="48"/>
-      <c r="BB30" s="48"/>
-      <c r="BC30" s="48"/>
-      <c r="BD30" s="48"/>
-      <c r="BE30" s="48"/>
-      <c r="BF30" s="48"/>
-      <c r="BG30" s="48"/>
-      <c r="BH30" s="48"/>
-      <c r="BI30" s="48"/>
-      <c r="BJ30" s="49"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="50"/>
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="70"/>
+      <c r="AL30" s="50"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="77"/>
+      <c r="AO30" s="50"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="50"/>
+      <c r="AV30" s="50"/>
+      <c r="AW30" s="50"/>
+      <c r="AX30" s="50"/>
+      <c r="AY30" s="50"/>
+      <c r="AZ30" s="50"/>
+      <c r="BA30" s="50"/>
+      <c r="BB30" s="50"/>
+      <c r="BC30" s="50"/>
+      <c r="BD30" s="50"/>
+      <c r="BE30" s="50"/>
+      <c r="BF30" s="50"/>
+      <c r="BG30" s="50"/>
+      <c r="BH30" s="50"/>
+      <c r="BI30" s="50"/>
+      <c r="BJ30" s="51"/>
       <c r="BK30" s="2"/>
     </row>
     <row r="31" spans="1:63" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -9026,270 +9018,270 @@
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="67" t="s">
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="67" t="s">
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="67" t="s">
-        <v>21</v>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="50"/>
+      <c r="AI32" s="50"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="58" t="s">
+        <v>18</v>
       </c>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="67" t="s">
-        <v>36</v>
+      <c r="AL32" s="50"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="58" t="s">
+        <v>32</v>
       </c>
-      <c r="AO32" s="48"/>
-      <c r="AP32" s="48"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="48"/>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="48"/>
-      <c r="AV32" s="48"/>
-      <c r="AW32" s="48"/>
-      <c r="AX32" s="48"/>
-      <c r="AY32" s="48"/>
-      <c r="AZ32" s="48"/>
-      <c r="BA32" s="48"/>
-      <c r="BB32" s="48"/>
-      <c r="BC32" s="48"/>
-      <c r="BD32" s="48"/>
-      <c r="BE32" s="48"/>
-      <c r="BF32" s="48"/>
-      <c r="BG32" s="48"/>
-      <c r="BH32" s="48"/>
-      <c r="BI32" s="48"/>
-      <c r="BJ32" s="49"/>
+      <c r="AO32" s="50"/>
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="50"/>
+      <c r="AR32" s="50"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="50"/>
+      <c r="AU32" s="50"/>
+      <c r="AV32" s="50"/>
+      <c r="AW32" s="50"/>
+      <c r="AX32" s="50"/>
+      <c r="AY32" s="50"/>
+      <c r="AZ32" s="50"/>
+      <c r="BA32" s="50"/>
+      <c r="BB32" s="50"/>
+      <c r="BC32" s="50"/>
+      <c r="BD32" s="50"/>
+      <c r="BE32" s="50"/>
+      <c r="BF32" s="50"/>
+      <c r="BG32" s="50"/>
+      <c r="BH32" s="50"/>
+      <c r="BI32" s="50"/>
+      <c r="BJ32" s="51"/>
       <c r="BK32" s="2"/>
     </row>
     <row r="33" spans="1:63" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="70"/>
-      <c r="AO33" s="48"/>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="48"/>
-      <c r="AR33" s="48"/>
-      <c r="AS33" s="48"/>
-      <c r="AT33" s="48"/>
-      <c r="AU33" s="48"/>
-      <c r="AV33" s="48"/>
-      <c r="AW33" s="48"/>
-      <c r="AX33" s="48"/>
-      <c r="AY33" s="48"/>
-      <c r="AZ33" s="48"/>
-      <c r="BA33" s="48"/>
-      <c r="BB33" s="48"/>
-      <c r="BC33" s="48"/>
-      <c r="BD33" s="48"/>
-      <c r="BE33" s="48"/>
-      <c r="BF33" s="48"/>
-      <c r="BG33" s="48"/>
-      <c r="BH33" s="48"/>
-      <c r="BI33" s="48"/>
-      <c r="BJ33" s="49"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="77"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="50"/>
+      <c r="AU33" s="50"/>
+      <c r="AV33" s="50"/>
+      <c r="AW33" s="50"/>
+      <c r="AX33" s="50"/>
+      <c r="AY33" s="50"/>
+      <c r="AZ33" s="50"/>
+      <c r="BA33" s="50"/>
+      <c r="BB33" s="50"/>
+      <c r="BC33" s="50"/>
+      <c r="BD33" s="50"/>
+      <c r="BE33" s="50"/>
+      <c r="BF33" s="50"/>
+      <c r="BG33" s="50"/>
+      <c r="BH33" s="50"/>
+      <c r="BI33" s="50"/>
+      <c r="BJ33" s="51"/>
       <c r="BK33" s="2"/>
     </row>
     <row r="34" spans="1:63" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="53"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="70"/>
-      <c r="AO34" s="48"/>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="48"/>
-      <c r="AR34" s="48"/>
-      <c r="AS34" s="48"/>
-      <c r="AT34" s="48"/>
-      <c r="AU34" s="48"/>
-      <c r="AV34" s="48"/>
-      <c r="AW34" s="48"/>
-      <c r="AX34" s="48"/>
-      <c r="AY34" s="48"/>
-      <c r="AZ34" s="48"/>
-      <c r="BA34" s="48"/>
-      <c r="BB34" s="48"/>
-      <c r="BC34" s="48"/>
-      <c r="BD34" s="48"/>
-      <c r="BE34" s="48"/>
-      <c r="BF34" s="48"/>
-      <c r="BG34" s="48"/>
-      <c r="BH34" s="48"/>
-      <c r="BI34" s="48"/>
-      <c r="BJ34" s="49"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="70"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="77"/>
+      <c r="AO34" s="50"/>
+      <c r="AP34" s="50"/>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="50"/>
+      <c r="AU34" s="50"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
+      <c r="BB34" s="50"/>
+      <c r="BC34" s="50"/>
+      <c r="BD34" s="50"/>
+      <c r="BE34" s="50"/>
+      <c r="BF34" s="50"/>
+      <c r="BG34" s="50"/>
+      <c r="BH34" s="50"/>
+      <c r="BI34" s="50"/>
+      <c r="BJ34" s="51"/>
       <c r="BK34" s="2"/>
     </row>
     <row r="35" spans="1:63" outlineLevel="1">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="53"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="53"/>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="70"/>
-      <c r="AO35" s="48"/>
-      <c r="AP35" s="48"/>
-      <c r="AQ35" s="48"/>
-      <c r="AR35" s="48"/>
-      <c r="AS35" s="48"/>
-      <c r="AT35" s="48"/>
-      <c r="AU35" s="48"/>
-      <c r="AV35" s="48"/>
-      <c r="AW35" s="48"/>
-      <c r="AX35" s="48"/>
-      <c r="AY35" s="48"/>
-      <c r="AZ35" s="48"/>
-      <c r="BA35" s="48"/>
-      <c r="BB35" s="48"/>
-      <c r="BC35" s="48"/>
-      <c r="BD35" s="48"/>
-      <c r="BE35" s="48"/>
-      <c r="BF35" s="48"/>
-      <c r="BG35" s="48"/>
-      <c r="BH35" s="48"/>
-      <c r="BI35" s="48"/>
-      <c r="BJ35" s="49"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="70"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="70"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="70"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="77"/>
+      <c r="AO35" s="50"/>
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="50"/>
+      <c r="AS35" s="50"/>
+      <c r="AT35" s="50"/>
+      <c r="AU35" s="50"/>
+      <c r="AV35" s="50"/>
+      <c r="AW35" s="50"/>
+      <c r="AX35" s="50"/>
+      <c r="AY35" s="50"/>
+      <c r="AZ35" s="50"/>
+      <c r="BA35" s="50"/>
+      <c r="BB35" s="50"/>
+      <c r="BC35" s="50"/>
+      <c r="BD35" s="50"/>
+      <c r="BE35" s="50"/>
+      <c r="BF35" s="50"/>
+      <c r="BG35" s="50"/>
+      <c r="BH35" s="50"/>
+      <c r="BI35" s="50"/>
+      <c r="BJ35" s="51"/>
       <c r="BK35" s="2"/>
     </row>
     <row r="36" spans="1:63" outlineLevel="1">
@@ -9424,22 +9416,66 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="K10:BJ10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:BJ7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:BJ8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:BJ9"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AN16:BJ16"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AN18:BJ18"/>
-    <mergeCell ref="K11:BJ11"/>
-    <mergeCell ref="K12:BJ12"/>
+    <mergeCell ref="F29:V29"/>
+    <mergeCell ref="W29:AC29"/>
+    <mergeCell ref="AD34:AJ34"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="D35:V35"/>
+    <mergeCell ref="W35:AC35"/>
+    <mergeCell ref="AD35:AJ35"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="D33:V33"/>
+    <mergeCell ref="W33:AC33"/>
+    <mergeCell ref="AD33:AJ33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="D34:V34"/>
+    <mergeCell ref="W34:AC34"/>
+    <mergeCell ref="F30:V30"/>
+    <mergeCell ref="W30:AC30"/>
+    <mergeCell ref="E26:V26"/>
+    <mergeCell ref="F28:V28"/>
+    <mergeCell ref="W28:AC28"/>
+    <mergeCell ref="AD28:AJ28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="D23:V23"/>
+    <mergeCell ref="W23:AC23"/>
+    <mergeCell ref="E25:V25"/>
+    <mergeCell ref="W25:AC25"/>
+    <mergeCell ref="AD25:AJ25"/>
+    <mergeCell ref="AD23:AJ23"/>
+    <mergeCell ref="D21:V21"/>
+    <mergeCell ref="D22:V22"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="AD22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="AD21:AJ21"/>
+    <mergeCell ref="AD30:AJ30"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="W32:AC32"/>
+    <mergeCell ref="AD32:AJ32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="D32:V32"/>
+    <mergeCell ref="AN32:BJ32"/>
+    <mergeCell ref="AN33:BJ33"/>
+    <mergeCell ref="AN34:BJ34"/>
+    <mergeCell ref="AN35:BJ35"/>
+    <mergeCell ref="AN21:BJ21"/>
+    <mergeCell ref="AN22:BJ22"/>
+    <mergeCell ref="AN30:BJ30"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="W26:AC26"/>
+    <mergeCell ref="AN29:BJ29"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AD26:AJ26"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="AN23:BJ23"/>
+    <mergeCell ref="AN25:BJ25"/>
+    <mergeCell ref="AN26:BJ26"/>
+    <mergeCell ref="AN28:BJ28"/>
     <mergeCell ref="AN19:BJ19"/>
     <mergeCell ref="D16:V16"/>
     <mergeCell ref="D17:V17"/>
@@ -9456,66 +9492,22 @@
     <mergeCell ref="AK19:AM19"/>
     <mergeCell ref="W16:AC16"/>
     <mergeCell ref="AD16:AJ16"/>
-    <mergeCell ref="AN21:BJ21"/>
-    <mergeCell ref="AN22:BJ22"/>
-    <mergeCell ref="AN30:BJ30"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="W26:AC26"/>
-    <mergeCell ref="AN29:BJ29"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AD26:AJ26"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="AN23:BJ23"/>
-    <mergeCell ref="AN25:BJ25"/>
-    <mergeCell ref="AN26:BJ26"/>
-    <mergeCell ref="AN28:BJ28"/>
-    <mergeCell ref="D32:V32"/>
-    <mergeCell ref="AN32:BJ32"/>
-    <mergeCell ref="AN33:BJ33"/>
-    <mergeCell ref="AN34:BJ34"/>
-    <mergeCell ref="AN35:BJ35"/>
-    <mergeCell ref="AD30:AJ30"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="W32:AC32"/>
-    <mergeCell ref="AD32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="D21:V21"/>
-    <mergeCell ref="D22:V22"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="AD22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="AD21:AJ21"/>
-    <mergeCell ref="D23:V23"/>
-    <mergeCell ref="W23:AC23"/>
-    <mergeCell ref="E25:V25"/>
-    <mergeCell ref="W25:AC25"/>
-    <mergeCell ref="AD25:AJ25"/>
-    <mergeCell ref="AD23:AJ23"/>
-    <mergeCell ref="E26:V26"/>
-    <mergeCell ref="F28:V28"/>
-    <mergeCell ref="W28:AC28"/>
-    <mergeCell ref="AD28:AJ28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="F29:V29"/>
-    <mergeCell ref="W29:AC29"/>
-    <mergeCell ref="AD34:AJ34"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="D35:V35"/>
-    <mergeCell ref="W35:AC35"/>
-    <mergeCell ref="AD35:AJ35"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="D33:V33"/>
-    <mergeCell ref="W33:AC33"/>
-    <mergeCell ref="AD33:AJ33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="D34:V34"/>
-    <mergeCell ref="W34:AC34"/>
-    <mergeCell ref="F30:V30"/>
-    <mergeCell ref="W30:AC30"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AN16:BJ16"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AN18:BJ18"/>
+    <mergeCell ref="K11:BJ11"/>
+    <mergeCell ref="K12:BJ12"/>
+    <mergeCell ref="K10:BJ10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:BJ7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:BJ8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:BJ9"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9562,16 +9554,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
@@ -9581,16 +9573,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -9600,16 +9592,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -9619,14 +9611,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -9636,14 +9628,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
@@ -9653,10 +9645,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="41"/>
@@ -9669,7 +9661,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="41"/>
       <c r="B7" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="41"/>
@@ -9682,7 +9674,7 @@
     <row r="8" spans="1:9">
       <c r="A8" s="41"/>
       <c r="B8" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="41"/>
@@ -9695,7 +9687,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="41"/>
       <c r="B9" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="41"/>
@@ -9708,7 +9700,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="41"/>
       <c r="B10" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="41"/>
@@ -9721,7 +9713,7 @@
     <row r="11" spans="1:9">
       <c r="A11" s="41"/>
       <c r="B11" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="41"/>
@@ -9734,7 +9726,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="41"/>
       <c r="B12" s="41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="41"/>
@@ -9747,7 +9739,7 @@
     <row r="13" spans="1:9">
       <c r="A13" s="41"/>
       <c r="B13" s="41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="41"/>
@@ -9760,7 +9752,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="41"/>
       <c r="B14" s="39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -9773,7 +9765,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="41"/>
       <c r="B15" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -9786,7 +9778,7 @@
     <row r="16" spans="1:9">
       <c r="A16" s="41"/>
       <c r="B16" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -9799,7 +9791,7 @@
     <row r="17" spans="1:9">
       <c r="A17" s="41"/>
       <c r="B17" s="39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -9812,7 +9804,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="41"/>
       <c r="B18" s="39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -9825,7 +9817,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="41"/>
       <c r="B19" s="39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -9838,7 +9830,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="41"/>
       <c r="B20" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -9851,7 +9843,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="41"/>
       <c r="B21" s="39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -9864,7 +9856,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="41"/>
       <c r="B22" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -9877,7 +9869,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="41"/>
       <c r="B23" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
